--- a/Assignment 1/Aircraft-Design-Ref-Sheet.xlsx
+++ b/Assignment 1/Aircraft-Design-Ref-Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4602fdf878c58603/Documents/GitHub/Aircraft-Design-USC-Fall24/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4602fdf878c58603/Documents/GitHub/Aircraft-Design-USC-Fall24/Assignment 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{997DC446-395C-45DF-8FB0-9A6B12FE88E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E749B7D-52D5-4E4B-A5C3-66417329FFD3}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{997DC446-395C-45DF-8FB0-9A6B12FE88E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42FAA6A4-9FA8-41FC-A9FA-7402B03AC7AD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B9DCB17C-302B-4D14-92AB-4707EE77551C}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="193">
   <si>
     <t>Req type</t>
   </si>
@@ -606,6 +606,18 @@
   </si>
   <si>
     <t>Electric engine powered by lipo</t>
+  </si>
+  <si>
+    <t>Design Specs Magnified:</t>
+  </si>
+  <si>
+    <t>Payload Analysis:</t>
+  </si>
+  <si>
+    <t>sensor suite:</t>
+  </si>
+  <si>
+    <t>6x6x10</t>
   </si>
 </sst>
 </file>
@@ -1147,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25428C8A-662B-400E-8D06-D9245C758624}">
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1809,6 +1821,24 @@
       </c>
       <c r="I40" t="s">
         <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>191</v>
+      </c>
+      <c r="B43" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment 1/Aircraft-Design-Ref-Sheet.xlsx
+++ b/Assignment 1/Aircraft-Design-Ref-Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4602fdf878c58603/Documents/GitHub/Aircraft-Design-USC-Fall24/Assignment 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{997DC446-395C-45DF-8FB0-9A6B12FE88E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42FAA6A4-9FA8-41FC-A9FA-7402B03AC7AD}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{997DC446-395C-45DF-8FB0-9A6B12FE88E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04C055A7-F57F-4571-8568-2280AD762C4F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B9DCB17C-302B-4D14-92AB-4707EE77551C}"/>
   </bookViews>
@@ -602,9 +602,6 @@
     <t>15m/s</t>
   </si>
   <si>
-    <t>200m</t>
-  </si>
-  <si>
     <t>Electric engine powered by lipo</t>
   </si>
   <si>
@@ -618,6 +615,9 @@
   </si>
   <si>
     <t>6x6x10</t>
+  </si>
+  <si>
+    <t>400ft</t>
   </si>
 </sst>
 </file>
@@ -1161,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25428C8A-662B-400E-8D06-D9245C758624}">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1805,13 +1805,13 @@
         <v>139</v>
       </c>
       <c r="D40" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E40" t="s">
         <v>184</v>
       </c>
       <c r="F40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G40" t="s">
         <v>129</v>
@@ -1825,20 +1825,20 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>190</v>
+      </c>
+      <c r="B43" t="s">
         <v>191</v>
-      </c>
-      <c r="B43" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment 1/Aircraft-Design-Ref-Sheet.xlsx
+++ b/Assignment 1/Aircraft-Design-Ref-Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4602fdf878c58603/Documents/GitHub/Aircraft-Design-USC-Fall24/Assignment 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{997DC446-395C-45DF-8FB0-9A6B12FE88E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04C055A7-F57F-4571-8568-2280AD762C4F}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{997DC446-395C-45DF-8FB0-9A6B12FE88E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A59F09F5-747C-485A-8188-2F827140B40F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B9DCB17C-302B-4D14-92AB-4707EE77551C}"/>
   </bookViews>
@@ -646,13 +646,6 @@
       <name val="Barlow"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -666,17 +659,24 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF444444"/>
-      <name val="Calibri Light"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="major"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF444444"/>
+      <color theme="1"/>
       <name val="Lato"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -693,7 +693,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -725,29 +725,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1161,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25428C8A-662B-400E-8D06-D9245C758624}">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView tabSelected="1" zoomScale="57" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1188,58 +1204,60 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="5"/>
+      <c r="J2" s="4"/>
       <c r="O2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="5" t="s">
         <v>74</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -1247,31 +1265,31 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="114" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="8" t="s">
         <v>75</v>
       </c>
       <c r="O4" s="1" t="s">
@@ -1282,25 +1300,26 @@
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="5" t="s">
         <v>88</v>
       </c>
       <c r="O5" s="1" t="s">
@@ -1308,28 +1327,29 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="5" t="s">
         <v>91</v>
       </c>
       <c r="O6" s="1" t="s">
@@ -1337,52 +1357,55 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+      <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" t="s">
+      <c r="F7" s="7"/>
+      <c r="G7" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="5" t="s">
         <v>97</v>
       </c>
+      <c r="I7" s="5"/>
       <c r="O7" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="5" t="s">
         <v>105</v>
       </c>
       <c r="O8" s="1" t="s">
@@ -1390,25 +1413,27 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E9" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="5" t="s">
         <v>109</v>
       </c>
       <c r="O9" s="1" t="s">
@@ -1416,25 +1441,27 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="5" t="s">
         <v>115</v>
       </c>
       <c r="O10" s="1" t="s">
@@ -1442,57 +1469,59 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E11" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="5" t="s">
         <v>116</v>
       </c>
+      <c r="I11" s="5"/>
       <c r="O11" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="5" t="s">
         <v>123</v>
       </c>
       <c r="O12" s="1" t="s">
@@ -1500,28 +1529,29 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="5" t="s">
         <v>131</v>
       </c>
       <c r="O13" s="1" t="s">
@@ -1529,25 +1559,27 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="H14" t="s">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="5" t="s">
         <v>135</v>
       </c>
       <c r="O14" s="1" t="s">
@@ -1555,28 +1587,29 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E15" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="5" t="s">
         <v>142</v>
       </c>
       <c r="O15" s="1" t="s">
@@ -1584,28 +1617,29 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E16" t="s">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="5" t="s">
         <v>146</v>
       </c>
       <c r="O16" s="1" t="s">
@@ -1613,28 +1647,29 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E17" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="5" t="s">
         <v>88</v>
       </c>
       <c r="O17" t="s">
@@ -1642,28 +1677,29 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E18" t="s">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="5" t="s">
         <v>115</v>
       </c>
       <c r="O18" s="1" t="s">
@@ -1671,25 +1707,27 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E19" t="s">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="G19" t="s">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="5" t="s">
         <v>159</v>
       </c>
       <c r="O19" s="1" t="s">
@@ -1697,22 +1735,25 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F20" t="s">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="H20" t="s">
+      <c r="G20" s="5"/>
+      <c r="H20" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="5" t="s">
         <v>162</v>
       </c>
       <c r="O20" s="1" t="s">
@@ -1720,22 +1761,25 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="H21" t="s">
+      <c r="G21" s="5"/>
+      <c r="H21" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="5" t="s">
         <v>168</v>
       </c>
       <c r="O21" s="1" t="s">
@@ -1743,25 +1787,27 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E22" t="s">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="G22" t="s">
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="5" t="s">
         <v>172</v>
       </c>
       <c r="O22" s="1" t="s">
@@ -1769,25 +1815,27 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="F23" t="s">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="5" t="s">
         <v>179</v>
       </c>
       <c r="O23" s="1" t="s">

--- a/Assignment 1/Aircraft-Design-Ref-Sheet.xlsx
+++ b/Assignment 1/Aircraft-Design-Ref-Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4602fdf878c58603/Documents/GitHub/Aircraft-Design-USC-Fall24/Assignment 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{997DC446-395C-45DF-8FB0-9A6B12FE88E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A59F09F5-747C-485A-8188-2F827140B40F}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{997DC446-395C-45DF-8FB0-9A6B12FE88E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1B93DA9-08E2-4FE8-A894-496BC0ED8EBF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B9DCB17C-302B-4D14-92AB-4707EE77551C}"/>
+    <workbookView xWindow="6756" yWindow="3624" windowWidth="12264" windowHeight="8616" activeTab="1" xr2:uid="{B9DCB17C-302B-4D14-92AB-4707EE77551C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="193">
   <si>
     <t>Req type</t>
   </si>
@@ -746,7 +746,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -758,10 +758,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1177,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25428C8A-662B-400E-8D06-D9245C758624}">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I23"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="57" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1204,7 +1203,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1237,27 +1236,25 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
+      <c r="E3" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
+      <c r="H3" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" t="s">
         <v>74</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -1265,31 +1262,31 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="114" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>75</v>
       </c>
       <c r="O4" s="1" t="s">
@@ -1300,26 +1297,25 @@
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
+      <c r="E5" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" t="s">
         <v>84</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" t="s">
         <v>88</v>
       </c>
       <c r="O5" s="1" t="s">
@@ -1327,29 +1323,28 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
+      <c r="E6" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" t="s">
         <v>96</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" t="s">
         <v>94</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" t="s">
         <v>91</v>
       </c>
       <c r="O6" s="1" t="s">
@@ -1357,55 +1352,52 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
+      <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
+      <c r="E7" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" t="s">
         <v>101</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" t="s">
         <v>97</v>
       </c>
-      <c r="I7" s="5"/>
       <c r="O7" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
+      <c r="E8" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" t="s">
         <v>107</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" t="s">
         <v>103</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" t="s">
         <v>105</v>
       </c>
       <c r="O8" s="1" t="s">
@@ -1413,27 +1405,25 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
+      <c r="E9" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" t="s">
         <v>110</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" t="s">
         <v>108</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" t="s">
         <v>97</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" t="s">
         <v>109</v>
       </c>
       <c r="O9" s="1" t="s">
@@ -1441,27 +1431,25 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
+      <c r="C10" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
+      <c r="E10" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" t="s">
         <v>113</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" t="s">
         <v>108</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" t="s">
         <v>111</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" t="s">
         <v>115</v>
       </c>
       <c r="O10" s="1" t="s">
@@ -1469,59 +1457,57 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
+      <c r="E11" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" t="s">
         <v>120</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" t="s">
         <v>117</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" t="s">
         <v>116</v>
       </c>
-      <c r="I11" s="5"/>
       <c r="O11" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" t="s">
         <v>127</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" t="s">
         <v>128</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" t="s">
         <v>126</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" t="s">
         <v>124</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" t="s">
         <v>121</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" t="s">
         <v>123</v>
       </c>
       <c r="O12" s="1" t="s">
@@ -1529,29 +1515,28 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>130</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" t="s">
         <v>133</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5" t="s">
+      <c r="E13" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" t="s">
         <v>132</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" t="s">
         <v>129</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" t="s">
         <v>97</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" t="s">
         <v>131</v>
       </c>
       <c r="O13" s="1" t="s">
@@ -1559,27 +1544,25 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" t="s">
         <v>136</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" t="s">
         <v>134</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5" t="s">
+      <c r="H14" t="s">
         <v>116</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" t="s">
         <v>135</v>
       </c>
       <c r="O14" s="1" t="s">
@@ -1587,29 +1570,28 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" t="s">
         <v>139</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5" t="s">
+      <c r="E15" t="s">
         <v>141</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" t="s">
         <v>143</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" t="s">
         <v>129</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" t="s">
         <v>140</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" t="s">
         <v>142</v>
       </c>
       <c r="O15" s="1" t="s">
@@ -1617,29 +1599,28 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" t="s">
         <v>149</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5" t="s">
+      <c r="E16" t="s">
         <v>144</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" t="s">
         <v>148</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" t="s">
         <v>145</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" t="s">
         <v>174</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" t="s">
         <v>146</v>
       </c>
       <c r="O16" s="1" t="s">
@@ -1647,29 +1628,28 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" t="s">
         <v>154</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5" t="s">
+      <c r="E17" t="s">
         <v>153</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" t="s">
         <v>152</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" t="s">
         <v>150</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" t="s">
         <v>175</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" t="s">
         <v>88</v>
       </c>
       <c r="O17" t="s">
@@ -1677,29 +1657,28 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" t="s">
         <v>130</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" t="s">
         <v>156</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5" t="s">
+      <c r="E18" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" t="s">
         <v>155</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" t="s">
         <v>129</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" t="s">
         <v>176</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" t="s">
         <v>115</v>
       </c>
       <c r="O18" s="1" t="s">
@@ -1707,27 +1686,25 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" t="s">
         <v>157</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" t="s">
         <v>158</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5" t="s">
+      <c r="E19" t="s">
         <v>160</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5" t="s">
+      <c r="G19" t="s">
         <v>129</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" t="s">
         <v>175</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" t="s">
         <v>159</v>
       </c>
       <c r="O19" s="1" t="s">
@@ -1735,25 +1712,22 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" t="s">
         <v>161</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" t="s">
         <v>163</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5" t="s">
+      <c r="F20" t="s">
         <v>164</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5" t="s">
+      <c r="H20" t="s">
         <v>167</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" t="s">
         <v>162</v>
       </c>
       <c r="O20" s="1" t="s">
@@ -1761,25 +1735,22 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" t="s">
         <v>165</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5" t="s">
+      <c r="H21" t="s">
         <v>166</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" t="s">
         <v>168</v>
       </c>
       <c r="O21" s="1" t="s">
@@ -1787,27 +1758,25 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" t="s">
         <v>170</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" t="s">
         <v>163</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5" t="s">
+      <c r="E22" t="s">
         <v>171</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5" t="s">
+      <c r="G22" t="s">
         <v>173</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" t="s">
         <v>116</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" t="s">
         <v>172</v>
       </c>
       <c r="O22" s="1" t="s">
@@ -1815,31 +1784,56 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" t="s">
         <v>177</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" t="s">
         <v>182</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5" t="s">
+      <c r="F23" t="s">
         <v>180</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" t="s">
         <v>178</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" t="s">
         <v>181</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" t="s">
         <v>179</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">

--- a/Assignment 1/Aircraft-Design-Ref-Sheet.xlsx
+++ b/Assignment 1/Aircraft-Design-Ref-Sheet.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4602fdf878c58603/Documents/GitHub/Aircraft-Design-USC-Fall24/Assignment 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailsc-my.sharepoint.com/personal/matthew_burnett_sc_edu/Documents/Classes/Fall 24/Aircraft-Design-USC-Fall24/Aircraft-Design-USC-Fall24/Assignment 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{997DC446-395C-45DF-8FB0-9A6B12FE88E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1B93DA9-08E2-4FE8-A894-496BC0ED8EBF}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="8_{997DC446-395C-45DF-8FB0-9A6B12FE88E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{341E41B6-8D8D-4B89-BD49-DB40F80DECFF}"/>
   <bookViews>
-    <workbookView xWindow="6756" yWindow="3624" windowWidth="12264" windowHeight="8616" activeTab="1" xr2:uid="{B9DCB17C-302B-4D14-92AB-4707EE77551C}"/>
+    <workbookView xWindow="-120" yWindow="-16335" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B9DCB17C-302B-4D14-92AB-4707EE77551C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1083,15 +1084,15 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1102,7 +1103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1113,7 +1114,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1124,7 +1125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1135,7 +1136,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1146,17 +1147,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1176,25 +1177,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25428C8A-662B-400E-8D06-D9245C758624}">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="57" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F1" activeCellId="2" sqref="A1:XFD1 D1:D1048576 F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="1" max="1" width="37.1328125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.46484375" customWidth="1"/>
+    <col min="7" max="7" width="14.86328125" customWidth="1"/>
+    <col min="8" max="8" width="12.86328125" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" customWidth="1"/>
-    <col min="15" max="15" width="72.5546875" customWidth="1"/>
+    <col min="15" max="15" width="72.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1202,7 +1203,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -1235,7 +1236,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1261,7 +1262,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="114" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" ht="114" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1293,7 +1294,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -1322,7 +1323,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1351,7 +1352,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1375,7 +1376,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1404,7 +1405,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1430,7 +1431,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1456,7 +1457,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1482,7 +1483,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="57" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1514,7 +1515,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1543,7 +1544,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1569,7 +1570,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1598,7 +1599,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1627,7 +1628,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -1656,7 +1657,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -1685,7 +1686,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -1711,7 +1712,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -1734,7 +1735,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -1757,7 +1758,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -1783,7 +1784,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -1809,8 +1810,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="39" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B39" s="3" t="s">
         <v>53</v>
       </c>
@@ -1836,7 +1837,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>183</v>
       </c>
@@ -1865,12 +1866,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>190</v>
       </c>
@@ -1878,7 +1879,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>189</v>
       </c>
@@ -1909,4 +1910,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14345DE1-9605-4840-B9ED-F101CB74BBDB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Assignment 1/Aircraft-Design-Ref-Sheet.xlsx
+++ b/Assignment 1/Aircraft-Design-Ref-Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailsc-my.sharepoint.com/personal/matthew_burnett_sc_edu/Documents/Classes/Fall 24/Aircraft-Design-USC-Fall24/Aircraft-Design-USC-Fall24/Assignment 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4602fdf878c58603/Documents/GitHub/Aircraft-Design-USC-Fall24/Assignment 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="8_{997DC446-395C-45DF-8FB0-9A6B12FE88E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{341E41B6-8D8D-4B89-BD49-DB40F80DECFF}"/>
+  <xr:revisionPtr revIDLastSave="253" documentId="8_{997DC446-395C-45DF-8FB0-9A6B12FE88E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D6346C2-B963-4CED-9EF8-E6DA05ED6262}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16335" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B9DCB17C-302B-4D14-92AB-4707EE77551C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B9DCB17C-302B-4D14-92AB-4707EE77551C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="228">
   <si>
     <t>Req type</t>
   </si>
@@ -397,9 +408,6 @@
     <t>17 m/s</t>
   </si>
   <si>
-    <t>Max take off weight: 5.75 kg</t>
-  </si>
-  <si>
     <t>eVTOL</t>
   </si>
   <si>
@@ -619,6 +627,114 @@
   </si>
   <si>
     <t>400ft</t>
+  </si>
+  <si>
+    <t>5.8 kg</t>
+  </si>
+  <si>
+    <t>ETOw, MTOW</t>
+  </si>
+  <si>
+    <t>20 kg</t>
+  </si>
+  <si>
+    <t>17 kg</t>
+  </si>
+  <si>
+    <t>16 kg</t>
+  </si>
+  <si>
+    <t>2kg</t>
+  </si>
+  <si>
+    <t>22 kg</t>
+  </si>
+  <si>
+    <t>5.5 kg</t>
+  </si>
+  <si>
+    <t>2.5 kg</t>
+  </si>
+  <si>
+    <t>5.75 kg</t>
+  </si>
+  <si>
+    <t>4.5 kg</t>
+  </si>
+  <si>
+    <t>3.7 kg</t>
+  </si>
+  <si>
+    <t>45 kg</t>
+  </si>
+  <si>
+    <t>7 kg</t>
+  </si>
+  <si>
+    <t>4.7 kg</t>
+  </si>
+  <si>
+    <t>30 kg</t>
+  </si>
+  <si>
+    <t>1.1 kg</t>
+  </si>
+  <si>
+    <t>ETOW</t>
+  </si>
+  <si>
+    <t>5.2 kg</t>
+  </si>
+  <si>
+    <t>39 kg</t>
+  </si>
+  <si>
+    <t>29 kg</t>
+  </si>
+  <si>
+    <t>1.5 kg</t>
+  </si>
+  <si>
+    <t>integrated</t>
+  </si>
+  <si>
+    <t>MTOW vs ETOW</t>
+  </si>
+  <si>
+    <t>3.5 kg</t>
+  </si>
+  <si>
+    <t>3.2 kg</t>
+  </si>
+  <si>
+    <t>38 kg</t>
+  </si>
+  <si>
+    <t>27 kg</t>
+  </si>
+  <si>
+    <t>0.8 kg</t>
+  </si>
+  <si>
+    <t>74.84 kg</t>
+  </si>
+  <si>
+    <t>56.84 kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41kg </t>
+  </si>
+  <si>
+    <t>7.82 kg</t>
+  </si>
+  <si>
+    <t>6.1461766 kg</t>
+  </si>
+  <si>
+    <t>103.058 kgs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 74.84 kg</t>
   </si>
 </sst>
 </file>
@@ -747,7 +863,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -765,6 +881,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -782,6 +901,1207 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>Aircraft empty weight as a function of take-off weight for UAVs [N]</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.40824125109361331"/>
+                  <c:y val="-2.3981481481481482E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$50:$D$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>98.100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.898000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>382.59000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>196.20000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>215.82000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49.050000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>176.58</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44.145000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.297000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>402.21000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1010.9989800000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>441.45000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46.107000000000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>294.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.791000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24.525000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>76.714200000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>734.18040000000008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$50:$E$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>53.955000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.012000000000008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>284.49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>156.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.715</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>166.77</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.145000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>156.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.335000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.392000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>176.58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>734.18040000000008</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>372.78000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36.297000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>264.87</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.8480000000000008</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.62</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60.293992446000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>557.60040000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A67-4B01-8C5A-FDEB1B2C8F45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="112124223"/>
+        <c:axId val="112121343"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="112124223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Max takeoff</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> weight [N}</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="112121343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="112121343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Empty</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> takeoff weight [N]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="112124223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>40341</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1344E309-B6D9-AD1E-C221-6EECC998C670}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1087,12 +2407,12 @@
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.86328125" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1103,7 +2423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1114,7 +2434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1125,7 +2445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1136,7 +2456,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1147,17 +2467,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1175,27 +2495,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25428C8A-662B-400E-8D06-D9245C758624}">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="2" sqref="A1:XFD1 D1:D1048576 F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.1328125" customWidth="1"/>
+    <col min="1" max="1" width="37.109375" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.46484375" customWidth="1"/>
-    <col min="7" max="7" width="14.86328125" customWidth="1"/>
-    <col min="8" max="8" width="12.86328125" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" customWidth="1"/>
-    <col min="15" max="15" width="72.53125" customWidth="1"/>
+    <col min="15" max="15" width="72.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1203,7 +2523,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -1231,12 +2551,17 @@
       <c r="I2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>209</v>
+      </c>
       <c r="O2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1258,11 +2583,17 @@
       <c r="I3" t="s">
         <v>74</v>
       </c>
+      <c r="J3" t="s">
+        <v>150</v>
+      </c>
+      <c r="K3" t="s">
+        <v>199</v>
+      </c>
       <c r="O3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="114" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:15" ht="114" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1290,11 +2621,17 @@
       <c r="I4" s="7" t="s">
         <v>75</v>
       </c>
+      <c r="J4" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>210</v>
+      </c>
       <c r="O4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -1319,11 +2656,17 @@
       <c r="I5" t="s">
         <v>88</v>
       </c>
+      <c r="J5" t="s">
+        <v>211</v>
+      </c>
+      <c r="K5" t="s">
+        <v>212</v>
+      </c>
       <c r="O5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1348,11 +2691,17 @@
       <c r="I6" t="s">
         <v>91</v>
       </c>
+      <c r="J6" t="s">
+        <v>194</v>
+      </c>
+      <c r="K6" t="s">
+        <v>196</v>
+      </c>
       <c r="O6" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:15" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1372,11 +2721,17 @@
       <c r="H7" t="s">
         <v>97</v>
       </c>
+      <c r="J7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K7" t="s">
+        <v>213</v>
+      </c>
       <c r="O7" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1401,11 +2756,17 @@
       <c r="I8" t="s">
         <v>105</v>
       </c>
+      <c r="J8" t="s">
+        <v>198</v>
+      </c>
+      <c r="K8" t="s">
+        <v>195</v>
+      </c>
       <c r="O8" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1427,14 +2788,23 @@
       <c r="I9" t="s">
         <v>109</v>
       </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>202</v>
+      </c>
       <c r="O9" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>33</v>
       </c>
+      <c r="B10" t="s">
+        <v>214</v>
+      </c>
       <c r="C10" t="s">
         <v>112</v>
       </c>
@@ -1453,17 +2823,17 @@
       <c r="I10" t="s">
         <v>115</v>
       </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
       <c r="O10" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
-      <c r="B11" t="s">
-        <v>119</v>
-      </c>
       <c r="C11" t="s">
         <v>68</v>
       </c>
@@ -1471,7 +2841,7 @@
         <v>118</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
         <v>117</v>
@@ -1479,72 +2849,87 @@
       <c r="H11" t="s">
         <v>116</v>
       </c>
+      <c r="J11" t="s">
+        <v>201</v>
+      </c>
       <c r="O11" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>36</v>
       </c>
       <c r="B12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" t="s">
+        <v>120</v>
+      </c>
+      <c r="I12" t="s">
         <v>122</v>
       </c>
-      <c r="C12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G12" t="s">
-        <v>124</v>
-      </c>
-      <c r="H12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I12" t="s">
-        <v>123</v>
+      <c r="J12" t="s">
+        <v>176</v>
+      </c>
+      <c r="K12" t="s">
+        <v>196</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E13" t="s">
         <v>114</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H13" t="s">
         <v>97</v>
       </c>
       <c r="I13" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="J13" t="s">
+        <v>202</v>
+      </c>
+      <c r="K13" t="s">
+        <v>216</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1552,190 +2937,232 @@
         <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H14" t="s">
         <v>116</v>
       </c>
       <c r="I14" t="s">
-        <v>135</v>
+        <v>134</v>
+      </c>
+      <c r="J14" t="s">
+        <v>203</v>
+      </c>
+      <c r="K14" t="s">
+        <v>217</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>42</v>
       </c>
       <c r="B15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" t="s">
         <v>138</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15" t="s">
         <v>139</v>
       </c>
-      <c r="E15" t="s">
+      <c r="I15" t="s">
         <v>141</v>
       </c>
-      <c r="F15" t="s">
-        <v>143</v>
-      </c>
-      <c r="G15" t="s">
-        <v>129</v>
-      </c>
-      <c r="H15" t="s">
-        <v>140</v>
-      </c>
-      <c r="I15" t="s">
-        <v>142</v>
+      <c r="J15" t="s">
+        <v>223</v>
+      </c>
+      <c r="K15" t="s">
+        <v>176</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
       <c r="B16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" t="s">
         <v>147</v>
       </c>
-      <c r="C16" t="s">
-        <v>149</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>144</v>
       </c>
-      <c r="F16" t="s">
-        <v>148</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
+        <v>173</v>
+      </c>
+      <c r="I16" t="s">
         <v>145</v>
       </c>
-      <c r="H16" t="s">
-        <v>174</v>
-      </c>
-      <c r="I16" t="s">
-        <v>146</v>
+      <c r="J16" t="s">
+        <v>226</v>
+      </c>
+      <c r="K16" t="s">
+        <v>227</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>47</v>
       </c>
       <c r="B17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F17" t="s">
         <v>151</v>
       </c>
-      <c r="C17" t="s">
-        <v>154</v>
-      </c>
-      <c r="E17" t="s">
-        <v>153</v>
-      </c>
-      <c r="F17" t="s">
-        <v>152</v>
-      </c>
       <c r="G17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I17" t="s">
         <v>88</v>
       </c>
+      <c r="J17" t="s">
+        <v>204</v>
+      </c>
+      <c r="K17" t="s">
+        <v>218</v>
+      </c>
       <c r="O17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E18" t="s">
         <v>114</v>
       </c>
       <c r="F18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I18" t="s">
         <v>115</v>
       </c>
+      <c r="J18" t="s">
+        <v>206</v>
+      </c>
+      <c r="K18" t="s">
+        <v>203</v>
+      </c>
       <c r="O18" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>51</v>
       </c>
       <c r="B19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" t="s">
         <v>157</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" t="s">
+        <v>174</v>
+      </c>
+      <c r="I19" t="s">
         <v>158</v>
       </c>
-      <c r="E19" t="s">
-        <v>160</v>
-      </c>
-      <c r="G19" t="s">
-        <v>129</v>
-      </c>
-      <c r="H19" t="s">
-        <v>175</v>
-      </c>
-      <c r="I19" t="s">
-        <v>159</v>
+      <c r="J19" t="s">
+        <v>207</v>
+      </c>
+      <c r="K19" t="s">
+        <v>219</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>60</v>
       </c>
       <c r="B20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" t="s">
+        <v>162</v>
+      </c>
+      <c r="F20" t="s">
+        <v>163</v>
+      </c>
+      <c r="H20" t="s">
+        <v>166</v>
+      </c>
+      <c r="I20" t="s">
         <v>161</v>
       </c>
-      <c r="C20" t="s">
-        <v>163</v>
-      </c>
-      <c r="F20" t="s">
-        <v>164</v>
-      </c>
-      <c r="H20" t="s">
-        <v>167</v>
-      </c>
-      <c r="I20" t="s">
-        <v>162</v>
+      <c r="J20" t="s">
+        <v>208</v>
+      </c>
+      <c r="K20" t="s">
+        <v>220</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -1743,75 +3170,93 @@
         <v>98</v>
       </c>
       <c r="C21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H21" t="s">
         <v>165</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H21" t="s">
-        <v>166</v>
-      </c>
       <c r="I21" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="J21" t="s">
+        <v>200</v>
+      </c>
+      <c r="K21" t="s">
+        <v>121</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>64</v>
       </c>
       <c r="B22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" t="s">
         <v>170</v>
       </c>
-      <c r="C22" t="s">
-        <v>163</v>
-      </c>
-      <c r="E22" t="s">
-        <v>171</v>
-      </c>
       <c r="G22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H22" t="s">
         <v>116</v>
       </c>
       <c r="I22" t="s">
-        <v>172</v>
+        <v>171</v>
+      </c>
+      <c r="J22" t="s">
+        <v>224</v>
+      </c>
+      <c r="K22" t="s">
+        <v>225</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>66</v>
       </c>
       <c r="B23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" t="s">
+        <v>181</v>
+      </c>
+      <c r="F23" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" t="s">
         <v>177</v>
       </c>
-      <c r="C23" t="s">
-        <v>182</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="H23" t="s">
         <v>180</v>
       </c>
-      <c r="G23" t="s">
+      <c r="I23" t="s">
         <v>178</v>
       </c>
-      <c r="H23" t="s">
-        <v>181</v>
-      </c>
-      <c r="I23" t="s">
-        <v>179</v>
+      <c r="J23" t="s">
+        <v>221</v>
+      </c>
+      <c r="K23" t="s">
+        <v>222</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="39" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="3" t="s">
         <v>53</v>
       </c>
@@ -1837,51 +3282,358 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>182</v>
+      </c>
+      <c r="B40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" t="s">
+        <v>191</v>
+      </c>
+      <c r="E40" t="s">
         <v>183</v>
       </c>
-      <c r="B40" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40" t="s">
-        <v>139</v>
-      </c>
-      <c r="D40" t="s">
-        <v>192</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
+        <v>186</v>
+      </c>
+      <c r="G40" t="s">
+        <v>128</v>
+      </c>
+      <c r="H40" t="s">
         <v>184</v>
       </c>
-      <c r="F40" t="s">
+      <c r="I40" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>187</v>
       </c>
-      <c r="G40" t="s">
-        <v>129</v>
-      </c>
-      <c r="H40" t="s">
-        <v>185</v>
-      </c>
-      <c r="I40" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>189</v>
+      </c>
+      <c r="B43" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>190</v>
-      </c>
-      <c r="B43" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>189</v>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>215</v>
+      </c>
+      <c r="B50">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>5.5</v>
+      </c>
+      <c r="D50">
+        <f>9.81*B50</f>
+        <v>98.100000000000009</v>
+      </c>
+      <c r="E50">
+        <f>9.81*C50</f>
+        <v>53.955000000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="C51" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ref="D51:E68" si="0">9.81*B51</f>
+        <v>56.898000000000003</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>51.012000000000008</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>39</v>
+      </c>
+      <c r="C52">
+        <v>29</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>382.59000000000003</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>284.49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>20</v>
+      </c>
+      <c r="C53">
+        <v>16</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>196.20000000000002</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>156.96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>1.5</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>19.62</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>14.715</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>22</v>
+      </c>
+      <c r="C55">
+        <v>17</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>215.82000000000002</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>166.77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>4.5</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>49.050000000000004</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>44.145000000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>18</v>
+      </c>
+      <c r="C57">
+        <v>16</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>176.58</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>156.96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>4.5</v>
+      </c>
+      <c r="C58">
+        <v>3.5</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>44.145000000000003</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>34.335000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>3.7</v>
+      </c>
+      <c r="C59">
+        <v>3.2</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>36.297000000000004</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>31.392000000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>41</v>
+      </c>
+      <c r="C60">
+        <v>18</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>402.21000000000004</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>176.58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>103.05800000000001</v>
+      </c>
+      <c r="C61">
+        <v>74.84</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>1010.9989800000001</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>734.18040000000008</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>45</v>
+      </c>
+      <c r="C62">
+        <v>38</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>441.45000000000005</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>372.78000000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>4.7</v>
+      </c>
+      <c r="C63">
+        <v>3.7</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>46.107000000000006</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>36.297000000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>30</v>
+      </c>
+      <c r="C64">
+        <v>27</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>294.3</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>264.87</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C65">
+        <v>0.8</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>10.791000000000002</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>7.8480000000000008</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>2.5</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>24.525000000000002</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>19.62</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>7.82</v>
+      </c>
+      <c r="C67">
+        <v>6.1461766000000004</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="0"/>
+        <v>76.714200000000005</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="0"/>
+        <v>60.293992446000004</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>74.84</v>
+      </c>
+      <c r="C68">
+        <v>56.84</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="0"/>
+        <v>734.18040000000008</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="0"/>
+        <v>557.60040000000004</v>
       </c>
     </row>
   </sheetData>
@@ -1909,6 +3661,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId21"/>
+  <drawing r:id="rId22"/>
 </worksheet>
 </file>
 
@@ -1920,7 +3673,7 @@
       <selection sqref="A1:I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Assignment 1/Aircraft-Design-Ref-Sheet.xlsx
+++ b/Assignment 1/Aircraft-Design-Ref-Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4602fdf878c58603/Documents/GitHub/Aircraft-Design-USC-Fall24/Assignment 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="253" documentId="8_{997DC446-395C-45DF-8FB0-9A6B12FE88E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D6346C2-B963-4CED-9EF8-E6DA05ED6262}"/>
+  <xr:revisionPtr revIDLastSave="649" documentId="8_{997DC446-395C-45DF-8FB0-9A6B12FE88E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEDF020A-F668-4CE1-BF6F-E4F3CFDC170F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B9DCB17C-302B-4D14-92AB-4707EE77551C}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,63 +38,159 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="222">
   <si>
     <t>Req type</t>
   </si>
   <si>
+    <t xml:space="preserve">Value </t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
     <t xml:space="preserve">Payload </t>
   </si>
   <si>
+    <t>kg</t>
+  </si>
+  <si>
     <t>Range</t>
   </si>
   <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>Cruise Altitude (Max)</t>
+  </si>
+  <si>
+    <t>ft</t>
+  </si>
+  <si>
     <t>Cruise speed</t>
   </si>
   <si>
+    <t>m/s</t>
+  </si>
+  <si>
     <t>Take off distance</t>
   </si>
   <si>
-    <t>Cruise Altitude (Max)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value </t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
     <t>Landing Distance</t>
   </si>
   <si>
-    <t>kg</t>
-  </si>
-  <si>
-    <t>km</t>
-  </si>
-  <si>
-    <t>ft</t>
-  </si>
-  <si>
     <t>Loiter time</t>
   </si>
   <si>
     <t xml:space="preserve">mins </t>
   </si>
   <si>
-    <t>m/s</t>
+    <t>Additional Data</t>
+  </si>
+  <si>
+    <t>Uniti</t>
+  </si>
+  <si>
+    <t>Cl max</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>Vs</t>
+  </si>
+  <si>
+    <t>roe</t>
+  </si>
+  <si>
+    <t>Sland</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Reference Aircraft List</t>
   </si>
   <si>
+    <t>Red highlight means info may be insufficient</t>
+  </si>
+  <si>
     <t>Aircraft Name</t>
   </si>
   <si>
+    <t>Payload</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>cruise altitude</t>
+  </si>
+  <si>
+    <t>cruise speed</t>
+  </si>
+  <si>
+    <t>type of power plant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service ceiling </t>
+  </si>
+  <si>
+    <t>endurance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Speed </t>
+  </si>
+  <si>
+    <t>MTOW kg</t>
+  </si>
+  <si>
+    <t>ETOW</t>
+  </si>
+  <si>
+    <t>Take Off length m</t>
+  </si>
+  <si>
+    <t>Stall Speed Landing m/s</t>
+  </si>
+  <si>
+    <t>landing length</t>
+  </si>
+  <si>
+    <t>Power Watts (ALL electric are at 80% efficiency)</t>
+  </si>
+  <si>
+    <t>W/P</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
     <t xml:space="preserve">Albatross Fixed Wing UAV </t>
   </si>
   <si>
-    <t>URL</t>
+    <t>4.4 kg</t>
+  </si>
+  <si>
+    <t>100 km</t>
+  </si>
+  <si>
+    <t>Lithium Ion electric</t>
+  </si>
+  <si>
+    <t>4hr</t>
+  </si>
+  <si>
+    <t>129km/hr</t>
+  </si>
+  <si>
+    <t>5.5 kg</t>
   </si>
   <si>
     <t>https://www.unmannedsystemstechnology.com/company/applied-aeronautics/</t>
@@ -103,192 +199,44 @@
     <t>SAT-i</t>
   </si>
   <si>
-    <t>https://www.uavos.com/products/fixed-wing-uavs/sat-i/</t>
-  </si>
-  <si>
-    <t>SITARIA E</t>
-  </si>
-  <si>
-    <t>https://www.uavos.com/products/fixed-wing-uavs/sitaria-e/</t>
-  </si>
-  <si>
-    <t>BOREY 20</t>
-  </si>
-  <si>
-    <t>https://www.uavos.com/products/fixed-wing-uavs/borey-10/</t>
-  </si>
-  <si>
-    <t>Fixed-wing UAV AVEM</t>
-  </si>
-  <si>
-    <t>https://www.directindustry.com/prod/aeromapper/product-182310-1802491.html</t>
-  </si>
-  <si>
-    <t>https://www.insitu.com/wp-content/uploads/2020/12/ScanEagle_ProductCard_DU120320.pdf</t>
-  </si>
-  <si>
-    <t>ScanEagle</t>
-  </si>
-  <si>
-    <t>https://www.eos-technologie.com/strix-300/</t>
-  </si>
-  <si>
-    <t>Strix 300</t>
-  </si>
-  <si>
-    <t>https://pdf.directindustry.com/pdf/c-astral/unamanned-aircraft-systems/182250-945853.html#open2113345</t>
-  </si>
-  <si>
-    <t>Fixed-wing UAV Bramor mSX</t>
-  </si>
-  <si>
-    <t>Trinity Pro</t>
-  </si>
-  <si>
-    <t>https://quantum-systems.com/trinity-pro/</t>
-  </si>
-  <si>
-    <t>DT26X LIDAR</t>
-  </si>
-  <si>
-    <t>C-Astral Bramor sAR</t>
-  </si>
-  <si>
-    <t>https://geo-matching.com/products/c-astral-bramor-sar</t>
-  </si>
-  <si>
-    <t>https://geo-matching.com/products/dt26x-lidar https://www.directindustry.com/prod/delair/product-108459-1800225.html</t>
-  </si>
-  <si>
-    <t>https://aeromao.com/products/vtnaut/</t>
-  </si>
-  <si>
-    <t>VT-NAUT</t>
-  </si>
-  <si>
-    <t>Penguin-C</t>
-  </si>
-  <si>
-    <t>https://www.aeroexpo.online/prod/uav-factory-ltd-europe/product-174156-793.html</t>
-  </si>
-  <si>
-    <t>https://www.griffonaerospace.com/products/outlaw-g2/</t>
-  </si>
-  <si>
-    <t>Outlaw G2</t>
-  </si>
-  <si>
-    <t>Red highlight means info may be insufficient</t>
-  </si>
-  <si>
-    <t>PD-1 UAS</t>
-  </si>
-  <si>
-    <t>chrome-extension://efaidnbmnnnibpcajpcglclefindmkaj/https://www.unmannedsystemstechnology.com/wp-content/uploads/2016/06/PD-1-Fixed-Wing-UAV.pdf</t>
-  </si>
-  <si>
-    <t>Bramore C4 Eye</t>
-  </si>
-  <si>
-    <t>https://www.c-astral.com/en/unmanned-systems/bramor-c4eye</t>
-  </si>
-  <si>
-    <t>SR3</t>
-  </si>
-  <si>
-    <t>https://www.satuav.com/glider-drone-runway-drone/long-endurance-fixed-wing-drone.html</t>
-  </si>
-  <si>
-    <t>Payload</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>cruise altitude</t>
-  </si>
-  <si>
-    <t>cruise speed</t>
-  </si>
-  <si>
-    <t>type of power plant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service ceiling </t>
-  </si>
-  <si>
-    <t>endurance</t>
-  </si>
-  <si>
-    <t>Talon GT Ready To Fly Drone</t>
-  </si>
-  <si>
-    <t>https://uavsystemsinternational.com/products/talon-gt-drone</t>
-  </si>
-  <si>
-    <t>Skywalker Ready To Fly Drone v2.2</t>
-  </si>
-  <si>
-    <t>https://uavsystemsinternational.com/products/skywalker-drone</t>
-  </si>
-  <si>
-    <t>Altavian</t>
-  </si>
-  <si>
-    <t>https://www.ua-sp.com/altavian</t>
-  </si>
-  <si>
-    <t>Integrator</t>
-  </si>
-  <si>
-    <t>https://www.insitu.com/products/integrator</t>
-  </si>
-  <si>
-    <t>100 km</t>
-  </si>
-  <si>
-    <t>68km/hr</t>
-  </si>
-  <si>
-    <t>4.4 kg</t>
-  </si>
-  <si>
-    <t>4hr</t>
-  </si>
-  <si>
-    <t>Lithium Ion electric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max Speed </t>
-  </si>
-  <si>
-    <t>129km/hr</t>
-  </si>
-  <si>
-    <t>14 m/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-8 m/s</t>
+    <t>0.6 kg</t>
+  </si>
+  <si>
+    <t>250 km</t>
+  </si>
+  <si>
+    <t>600 m</t>
   </si>
   <si>
     <t>Electric 400W</t>
   </si>
   <si>
-    <t>250 km</t>
+    <t>9000 m</t>
   </si>
   <si>
     <t>2 hours
 4 hours optionally with use of solar energy at aoa no greater than 20 deg</t>
   </si>
   <si>
-    <t>0.6 kg</t>
-  </si>
-  <si>
-    <t>600 m</t>
-  </si>
-  <si>
-    <t>9000 m</t>
+    <t>14 m/s</t>
+  </si>
+  <si>
+    <t>5.2 kg</t>
+  </si>
+  <si>
+    <t>https://www.uavos.com/products/fixed-wing-uavs/sat-i/</t>
+  </si>
+  <si>
+    <t>SITARIA E</t>
+  </si>
+  <si>
+    <t>Payload with full battery:
+4 kg
+Max payload: 
+10 kg</t>
+  </si>
+  <si>
+    <t>240 km</t>
   </si>
   <si>
     <t>Engine type:
@@ -306,60 +254,72 @@
 1.5 h</t>
   </si>
   <si>
-    <t>Payload with full battery:
-4 kg
-Max payload: 
-10 kg</t>
-  </si>
-  <si>
-    <t>240 km</t>
-  </si>
-  <si>
     <t>140 km/h</t>
   </si>
   <si>
-    <t>80 km/h</t>
-  </si>
-  <si>
-    <t>20 m/sec</t>
+    <t>29 kg</t>
+  </si>
+  <si>
+    <t>https://www.uavos.com/products/fixed-wing-uavs/sitaria-e/</t>
+  </si>
+  <si>
+    <t>BOREY 20</t>
+  </si>
+  <si>
+    <t>4 kg</t>
+  </si>
+  <si>
+    <t>400 km</t>
+  </si>
+  <si>
+    <t>24V, LI-Ion Electric motor 2000W</t>
+  </si>
+  <si>
+    <t>3,500 m</t>
+  </si>
+  <si>
+    <t>5 hours</t>
   </si>
   <si>
     <t>30 m/sec</t>
   </si>
   <si>
-    <t>4 kg</t>
-  </si>
-  <si>
-    <t>24V, LI-Ion Electric motor 2000W</t>
-  </si>
-  <si>
-    <t>5 hours</t>
-  </si>
-  <si>
-    <t>400 km</t>
-  </si>
-  <si>
-    <t>3,500 m</t>
+    <t>16 kg</t>
+  </si>
+  <si>
+    <t>https://www.uavos.com/products/fixed-wing-uavs/borey-10/</t>
+  </si>
+  <si>
+    <t>Fixed-wing UAV AVEM</t>
+  </si>
+  <si>
+    <t>0.5 kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">195 km </t>
+  </si>
+  <si>
+    <t>3500 m</t>
   </si>
   <si>
     <t xml:space="preserve">3 hours </t>
   </si>
   <si>
-    <t>0.5 kg</t>
-  </si>
-  <si>
-    <t>65 km/h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">195 km </t>
-  </si>
-  <si>
-    <t>3500 m</t>
+    <t>1.5 kg</t>
+  </si>
+  <si>
+    <t>https://www.directindustry.com/prod/aeromapper/product-182310-1802491.html</t>
+  </si>
+  <si>
+    <t>ScanEagle</t>
   </si>
   <si>
     <t>5 kg</t>
   </si>
   <si>
+    <t>Engine: heavy fuel (JP-5 or JP-8)*</t>
+  </si>
+  <si>
     <t xml:space="preserve">5,950 m </t>
   </si>
   <si>
@@ -369,10 +329,16 @@
     <t>41.2 m/sec</t>
   </si>
   <si>
-    <t>25-30 m/s</t>
-  </si>
-  <si>
-    <t>Engine: heavy fuel (JP-5 or JP-8)*</t>
+    <t>17 kg</t>
+  </si>
+  <si>
+    <t>https://www.insitu.com/wp-content/uploads/2020/12/ScanEagle_ProductCard_DU120320.pdf</t>
+  </si>
+  <si>
+    <t>Strix 300</t>
+  </si>
+  <si>
+    <t>electric motor</t>
   </si>
   <si>
     <t xml:space="preserve">5,000 m </t>
@@ -381,86 +347,119 @@
     <t>120 km/h</t>
   </si>
   <si>
-    <t>electric motor</t>
+    <t>4.5 kg</t>
+  </si>
+  <si>
+    <t>https://www.eos-technologie.com/strix-300/</t>
+  </si>
+  <si>
+    <t>Fixed-wing UAV Bramor mSX</t>
+  </si>
+  <si>
+    <t>integrated</t>
+  </si>
+  <si>
+    <t>150 km</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brushless Electric and Lithium ion battery </t>
   </si>
   <si>
     <t>3-3.5 hours</t>
   </si>
   <si>
-    <t>150 km</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brushless Electric and Lithium ion battery </t>
-  </si>
-  <si>
-    <t>16 m/s</t>
-  </si>
-  <si>
     <t>22 m/s</t>
   </si>
   <si>
+    <t>https://pdf.directindustry.com/pdf/c-astral/unamanned-aircraft-systems/182250-945853.html#open2113345</t>
+  </si>
+  <si>
+    <t>Trinity Pro</t>
+  </si>
+  <si>
+    <t>eVTOL</t>
+  </si>
+  <si>
+    <t>5,500 m</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.5 hours </t>
   </si>
   <si>
-    <t>5,500 m</t>
-  </si>
-  <si>
-    <t>17 m/s</t>
-  </si>
-  <si>
-    <t>eVTOL</t>
-  </si>
-  <si>
-    <t>2.5 hours</t>
+    <t>https://quantum-systems.com/trinity-pro/</t>
+  </si>
+  <si>
+    <t>DT26X LIDAR</t>
   </si>
   <si>
     <t>2 kg</t>
   </si>
   <si>
-    <t>110 km/h</t>
-  </si>
-  <si>
-    <t>4000 m</t>
+    <t>85 km</t>
+  </si>
+  <si>
+    <t>550m</t>
   </si>
   <si>
     <t xml:space="preserve">
 Electric, brushless motors (lithium-polymer)</t>
   </si>
   <si>
-    <t>60 km/h</t>
-  </si>
-  <si>
-    <t>85 km</t>
-  </si>
-  <si>
-    <t>550m</t>
+    <t>4000 m</t>
+  </si>
+  <si>
+    <t>2.5 hours</t>
+  </si>
+  <si>
+    <t>110 km/h</t>
+  </si>
+  <si>
+    <t>https://geo-matching.com/products/dt26x-lidar https://www.directindustry.com/prod/delair/product-108459-1800225.html</t>
+  </si>
+  <si>
+    <t>C-Astral Bramor sAR</t>
+  </si>
+  <si>
+    <t>1 kg</t>
+  </si>
+  <si>
+    <t>180 km</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brushless electric motor powered by lithium ion battery pack </t>
   </si>
   <si>
     <t>5000m</t>
   </si>
   <si>
-    <t>1 kg</t>
-  </si>
-  <si>
     <t>83 km/h</t>
   </si>
   <si>
-    <t xml:space="preserve">brushless electric motor powered by lithium ion battery pack </t>
-  </si>
-  <si>
-    <t>180 km</t>
-  </si>
-  <si>
-    <t>55 km/h</t>
+    <t>3.5 kg</t>
+  </si>
+  <si>
+    <t>https://geo-matching.com/products/c-astral-bramor-sar</t>
+  </si>
+  <si>
+    <t>VT-NAUT</t>
+  </si>
+  <si>
+    <t>30 km</t>
+  </si>
+  <si>
+    <t>400 ft</t>
   </si>
   <si>
     <t>85 km/h</t>
   </si>
   <si>
-    <t>400 ft</t>
-  </si>
-  <si>
-    <t>30 km</t>
+    <t>3.2 kg</t>
+  </si>
+  <si>
+    <t>https://aeromao.com/products/vtnaut/</t>
+  </si>
+  <si>
+    <t>Penguin-C</t>
   </si>
   <si>
     <t>23 kg</t>
@@ -469,55 +468,91 @@
     <t>100km</t>
   </si>
   <si>
+    <t>28 cc EFI engine,100w onboard generator</t>
+  </si>
+  <si>
     <t>20 hours</t>
   </si>
   <si>
-    <t>19-22 m/s</t>
-  </si>
-  <si>
     <t>32 m/s</t>
   </si>
   <si>
-    <t>28 cc EFI engine,100w onboard generator</t>
-  </si>
-  <si>
-    <t>60-80 KTAS</t>
+    <t>18 kg</t>
+  </si>
+  <si>
+    <t>https://www.aeroexpo.online/prod/uav-factory-ltd-europe/product-174156-793.html</t>
+  </si>
+  <si>
+    <t>Outlaw G2</t>
+  </si>
+  <si>
+    <t>40-60 lbs</t>
+  </si>
+  <si>
+    <t>60 nm</t>
+  </si>
+  <si>
+    <t>150 or 170 cc 2-cylinder, 2 stroke</t>
   </si>
   <si>
     <t>16000ft</t>
   </si>
   <si>
+    <t>8+ hours</t>
+  </si>
+  <si>
     <t>126 KTAS</t>
   </si>
   <si>
-    <t>40-60 lbs</t>
-  </si>
-  <si>
-    <t>150 or 170 cc 2-cylinder, 2 stroke</t>
-  </si>
-  <si>
-    <t>60 nm</t>
+    <t xml:space="preserve"> 74.84 kg</t>
+  </si>
+  <si>
+    <t>https://www.griffonaerospace.com/products/outlaw-g2/</t>
+  </si>
+  <si>
+    <t>PD-1 UAS</t>
+  </si>
+  <si>
+    <t>7 kg</t>
+  </si>
+  <si>
+    <t>80 km</t>
+  </si>
+  <si>
+    <t>4-stroke</t>
   </si>
   <si>
     <t>3000m</t>
   </si>
   <si>
-    <t>10 kg</t>
-  </si>
-  <si>
-    <t>4-stroke</t>
-  </si>
-  <si>
-    <t>25 m/s</t>
-  </si>
-  <si>
-    <t>80 km</t>
+    <t>10 hours</t>
+  </si>
+  <si>
+    <t>38 kg</t>
+  </si>
+  <si>
+    <t>chrome-extension://efaidnbmnnnibpcajpcglclefindmkaj/https://www.unmannedsystemstechnology.com/wp-content/uploads/2016/06/PD-1-Fixed-Wing-UAV.pdf</t>
+  </si>
+  <si>
+    <t>Bramore C4 Eye</t>
+  </si>
+  <si>
+    <t>210 km</t>
   </si>
   <si>
     <t>Brushless electric</t>
   </si>
   <si>
-    <t>210 km</t>
+    <t>3.5 hours</t>
+  </si>
+  <si>
+    <t>3.7 kg</t>
+  </si>
+  <si>
+    <t>https://www.c-astral.com/en/unmanned-systems/bramor-c4eye</t>
+  </si>
+  <si>
+    <t>SR3</t>
   </si>
   <si>
     <t>3 kg</t>
@@ -529,219 +564,165 @@
     <t>160km/h</t>
   </si>
   <si>
-    <t>130 km/h</t>
+    <t>27 kg</t>
+  </si>
+  <si>
+    <t>https://www.satuav.com/glider-drone-runway-drone/long-endurance-fixed-wing-drone.html</t>
+  </si>
+  <si>
+    <t>Talon GT Ready To Fly Drone</t>
   </si>
   <si>
     <t>0.3 kg</t>
   </si>
   <si>
+    <t>15 km</t>
+  </si>
+  <si>
+    <t>7,000 mAh 4S Li-Ion Custom Battery</t>
+  </si>
+  <si>
+    <t>45 min</t>
+  </si>
+  <si>
     <t>100km/h</t>
   </si>
   <si>
-    <t>15 km</t>
-  </si>
-  <si>
-    <t>7,000 mAh 4S Li-Ion Custom Battery</t>
+    <t>0.8 kg</t>
+  </si>
+  <si>
+    <t>https://uavsystemsinternational.com/products/talon-gt-drone</t>
+  </si>
+  <si>
+    <t>Skywalker Ready To Fly Drone v2.2</t>
   </si>
   <si>
     <t>20 km</t>
-  </si>
-  <si>
-    <t>59 min</t>
-  </si>
-  <si>
-    <t>45 min</t>
-  </si>
-  <si>
-    <t>90 km/h</t>
   </si>
   <si>
     <t>2x 5,000 mAh
 Li-Ion</t>
   </si>
   <si>
+    <t>59 min</t>
+  </si>
+  <si>
+    <t>90 km/h</t>
+  </si>
+  <si>
+    <t>https://uavsystemsinternational.com/products/skywalker-drone</t>
+  </si>
+  <si>
+    <t>Altavian</t>
+  </si>
+  <si>
     <t>3.7 lbs</t>
   </si>
   <si>
-    <t>30 kts</t>
+    <t>10,000 ft</t>
   </si>
   <si>
     <t>58 kts</t>
   </si>
   <si>
-    <t>10,000 ft</t>
-  </si>
-  <si>
-    <t>8+ hours</t>
-  </si>
-  <si>
-    <t>10 hours</t>
-  </si>
-  <si>
-    <t>3.5 hours</t>
-  </si>
-  <si>
-    <t>18 kg</t>
+    <t>6.1461766 kg</t>
+  </si>
+  <si>
+    <t>https://www.ua-sp.com/altavian</t>
+  </si>
+  <si>
+    <t>Integrator</t>
+  </si>
+  <si>
+    <t>92.6 km</t>
+  </si>
+  <si>
+    <t>V3 engine, EFI using JP-5/JP-8 fuel</t>
   </si>
   <si>
     <t>5944m</t>
   </si>
   <si>
+    <t>24 hours</t>
+  </si>
+  <si>
     <t>46 m/s</t>
   </si>
   <si>
-    <t>V3 engine, EFI using JP-5/JP-8 fuel</t>
-  </si>
-  <si>
-    <t>24 hours</t>
-  </si>
-  <si>
-    <t>92.6 km</t>
+    <t>56.84 kg</t>
+  </si>
+  <si>
+    <t>https://www.insitu.com/products/integrator</t>
   </si>
   <si>
     <t>Design Specs:</t>
   </si>
   <si>
+    <t>400ft</t>
+  </si>
+  <si>
     <t>10m/s</t>
   </si>
   <si>
+    <t>Electric engine powered by lipo</t>
+  </si>
+  <si>
     <t>3 hours</t>
   </si>
   <si>
     <t>15m/s</t>
   </si>
   <si>
-    <t>Electric engine powered by lipo</t>
-  </si>
-  <si>
     <t>Design Specs Magnified:</t>
   </si>
   <si>
+    <t>sensor suite:</t>
+  </si>
+  <si>
+    <t>6x6x10</t>
+  </si>
+  <si>
     <t>Payload Analysis:</t>
   </si>
   <si>
-    <t>sensor suite:</t>
-  </si>
-  <si>
-    <t>6x6x10</t>
-  </si>
-  <si>
-    <t>400ft</t>
-  </si>
-  <si>
-    <t>5.8 kg</t>
-  </si>
-  <si>
-    <t>ETOw, MTOW</t>
-  </si>
-  <si>
-    <t>20 kg</t>
-  </si>
-  <si>
-    <t>17 kg</t>
-  </si>
-  <si>
-    <t>16 kg</t>
-  </si>
-  <si>
-    <t>2kg</t>
-  </si>
-  <si>
-    <t>22 kg</t>
-  </si>
-  <si>
-    <t>5.5 kg</t>
-  </si>
-  <si>
-    <t>2.5 kg</t>
-  </si>
-  <si>
-    <t>5.75 kg</t>
-  </si>
-  <si>
-    <t>4.5 kg</t>
-  </si>
-  <si>
-    <t>3.7 kg</t>
-  </si>
-  <si>
-    <t>45 kg</t>
-  </si>
-  <si>
-    <t>7 kg</t>
-  </si>
-  <si>
-    <t>4.7 kg</t>
-  </si>
-  <si>
-    <t>30 kg</t>
-  </si>
-  <si>
-    <t>1.1 kg</t>
-  </si>
-  <si>
-    <t>ETOW</t>
-  </si>
-  <si>
-    <t>5.2 kg</t>
-  </si>
-  <si>
-    <t>39 kg</t>
-  </si>
-  <si>
-    <t>29 kg</t>
-  </si>
-  <si>
-    <t>1.5 kg</t>
-  </si>
-  <si>
-    <t>integrated</t>
-  </si>
-  <si>
     <t>MTOW vs ETOW</t>
   </si>
   <si>
-    <t>3.5 kg</t>
-  </si>
-  <si>
-    <t>3.2 kg</t>
-  </si>
-  <si>
-    <t>38 kg</t>
-  </si>
-  <si>
-    <t>27 kg</t>
-  </si>
-  <si>
-    <t>0.8 kg</t>
-  </si>
-  <si>
-    <t>74.84 kg</t>
-  </si>
-  <si>
-    <t>56.84 kg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41kg </t>
-  </si>
-  <si>
-    <t>7.82 kg</t>
-  </si>
-  <si>
-    <t>6.1461766 kg</t>
-  </si>
-  <si>
-    <t>103.058 kgs</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 74.84 kg</t>
+    <t>W/Sx stall landing and stall clean</t>
+  </si>
+  <si>
+    <t>W/s to</t>
+  </si>
+  <si>
+    <t>W/S Clean</t>
+  </si>
+  <si>
+    <t>W/S Takeoff</t>
+  </si>
+  <si>
+    <t>W/S landing</t>
+  </si>
+  <si>
+    <t>w/s</t>
+  </si>
+  <si>
+    <t>w/p</t>
+  </si>
+  <si>
+    <t>TOP prop</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Take off speed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -794,6 +775,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -863,7 +849,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -884,6 +870,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1507,7 +1494,2016 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$W$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>landing length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$V$51:$V$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.1613421487812867</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.456095244946951</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3429752067621159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1726437013739961</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2958006553677386</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6611949043369039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.849014522506721</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.819942983576713</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$W$51:$W$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>192.81895928750001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>133.08750000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>251.00894000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.96350000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>532.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>114.10126280871501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-982F-44B3-8DC9-89E706B98AC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="16766984"/>
+        <c:axId val="16982024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="16766984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="16982024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="16982024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="16766984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>TOP prop vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> W/P</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$S$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TOP prop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$R$36:$R$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.17780625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19129500000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0833333333333335E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4087053571428575E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20437500000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4079125079024506E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10029751785714286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15010200612036723</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0524341428517532</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$S$36:$S$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.1613421487812867</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.456095244946951</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3731129477012245</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1726437013739961</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2958006553677386</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6611949043369039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.849014522506721</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.819942983576713</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>140.04999492651837</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3732-4F01-ADDD-CDD873E67E14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1328778607"/>
+        <c:axId val="1328782447"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1328778607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>W/P</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Ref</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1328782447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1328782447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TOP</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Prop</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1328778607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>W/S</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs W/P</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$R$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w/p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$Q$47:$Q$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>11.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>239.59752337499998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>311.90460000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.894208149600004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>124.215</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>661.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>141.78263425935</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>239.59752337499998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$R$47:$R$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.17780625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19129500000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0833333333333335E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4087053571428575E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20437500000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4079125079024506E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10029751785714286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15010200612036723</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0524341428517532</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C919-4FB4-932E-53BA9EA317C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1328789167"/>
+        <c:axId val="1328789647"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1328789167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1328789647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1328789647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1328789167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>TOP</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Take off Length</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$V$36:$V$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.1613421487812867</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.456095244946951</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3731129477012245</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1726437013739961</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2958006553677386</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6611949043369039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.849014522506721</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.819942983576713</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>140.04999492651837</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$W$36:$W$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>231.38275114499999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.427199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>301.21072800000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>119.95620000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>638.82000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>136.921515370458</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>231.38275114499999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8071-4B4C-A64D-D880B6369B93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1328770927"/>
+        <c:axId val="1328770447"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1328770927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Take</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> off parameter [N/m^2]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1328770447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1328770447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Take off length</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [m]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1328770927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2063,6 +4059,2070 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2101,7 +6161,168 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31CB824D-AE96-52BA-444D-566B9B9C415B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E3A84C33-016F-FC55-F98D-57A785195D61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>578224</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>170330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>4540624</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37B51A1A-DFDB-3BAB-59C4-53CF05EDB81C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>103094</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>4675094</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B39160B4-22AE-BA6B-C2F0-F3E4DDE28ADB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>94129</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>4666129</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>125507</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB4760F9-D986-2D4E-239B-26EC81DF3405}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6018F96A-26B1-44CC-B14C-F9F2C07F1CCD}" name="Table1" displayName="Table1" ref="W50:W59" totalsRowShown="0">
+  <autoFilter ref="W50:W59" xr:uid="{6018F96A-26B1-44CC-B14C-F9F2C07F1CCD}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{5C20ECE2-94C5-4ECD-8D1B-1853934BAE37}" name="landing length"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2401,10 +6622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8470063-CE08-47CE-8F03-2A8B7FB2E8FC}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2417,75 +6638,138 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>400</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>1.8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>1.2250000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <f>0.5915*B14^2</f>
+        <v>191.64600000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>1.2362</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2495,10 +6779,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25428C8A-662B-400E-8D06-D9245C758624}">
-  <dimension ref="A1:O68"/>
+  <dimension ref="A1:X68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" topLeftCell="K20" zoomScale="106" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2513,457 +6797,875 @@
     <col min="8" max="8" width="12.88671875" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" customWidth="1"/>
     <col min="15" max="15" width="72.5546875" customWidth="1"/>
+    <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="U2" t="s">
+        <v>220</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3">
+        <v>18.8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3">
+        <f>1.2*N3</f>
+        <v>70.98</v>
+      </c>
+      <c r="M3">
+        <v>10</v>
+      </c>
+      <c r="N3">
+        <f>0.5915*M3^2</f>
+        <v>59.150000000000006</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="V3">
+        <f>(M3*1.5)</f>
         <v>15</v>
       </c>
-      <c r="C1" t="s">
-        <v>46</v>
+      <c r="X3" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="4" spans="1:24" ht="114" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C4" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E4" s="7">
+        <v>8</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G4" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I4" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J4" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L21" si="0">1.2*N4</f>
+        <v>240</v>
+      </c>
+      <c r="M4" s="7">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>200</v>
+      </c>
+      <c r="O4">
+        <v>320</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4">
+        <f>(J4*9.81)/O4</f>
+        <v>0.17780625</v>
+      </c>
+      <c r="R4">
+        <f>0.5*1.225*1.2*(M4)^2</f>
+        <v>11.76</v>
+      </c>
+      <c r="S4">
+        <f>0.5*1.225*2*(M4*0.77448819)^2</f>
+        <v>11.756706346409734</v>
+      </c>
+      <c r="T4">
+        <f>0.5*1.225*2.1*(M4*0.75582677)^2</f>
+        <v>11.756821106596865</v>
+      </c>
+      <c r="U4">
+        <f>S4*Q4*(1/Sheet1!$B$13)</f>
+        <v>1.1613421487812867</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:V5" si="1">(M4*1.5)</f>
+        <v>6</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="157.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5">
+        <v>22.2</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>231.38275114499999</v>
+      </c>
+      <c r="M5">
+        <v>18.055</v>
+      </c>
+      <c r="N5">
+        <f>0.5915*M5^2</f>
+        <v>192.81895928750001</v>
+      </c>
+      <c r="O5">
+        <v>2000</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5">
+        <f>(J5*9.81)/O5</f>
+        <v>0.19129500000000002</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ref="R5:R23" si="2">0.5*1.225*1.2*(M5)^2</f>
+        <v>239.59752337499998</v>
+      </c>
+      <c r="S5">
+        <f t="shared" ref="S5:S23" si="3">0.5*1.225*2*(M5*0.77448819)^2</f>
+        <v>239.5304186774589</v>
+      </c>
+      <c r="T5">
+        <f t="shared" ref="T5:T23" si="4">0.5*1.225*2.1*(M5*0.75582677)^2</f>
+        <v>239.53275679451835</v>
+      </c>
+      <c r="U5">
+        <f>S5*Q5*(1/Sheet1!$B$13)</f>
+        <v>25.456095244946951</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="1"/>
+        <v>27.0825</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>45.427199999999999</v>
+      </c>
+      <c r="M6">
+        <v>8</v>
+      </c>
+      <c r="N6">
+        <f>0.5915*M6^2</f>
+        <v>37.856000000000002</v>
+      </c>
+      <c r="O6">
+        <v>2160</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6">
+        <f>(J6*9.81)/O6</f>
+        <v>9.0833333333333335E-2</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="2"/>
+        <v>47.04</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="3"/>
+        <v>47.026825385638936</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="4"/>
+        <v>47.02728442638746</v>
+      </c>
+      <c r="U6">
+        <f>S6*Q6*(1/Sheet1!$B$13)</f>
+        <v>2.3731129477012245</v>
+      </c>
+      <c r="V6">
+        <v>9.0628366337100008</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7">
         <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J3" t="s">
-        <v>150</v>
-      </c>
-      <c r="K3" t="s">
-        <v>199</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="114" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5" t="s">
-        <v>88</v>
-      </c>
-      <c r="J5" t="s">
-        <v>211</v>
-      </c>
-      <c r="K5" t="s">
-        <v>212</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" t="s">
-        <v>96</v>
-      </c>
-      <c r="H6" t="s">
-        <v>94</v>
-      </c>
-      <c r="I6" t="s">
-        <v>91</v>
-      </c>
-      <c r="J6" t="s">
-        <v>194</v>
-      </c>
-      <c r="K6" t="s">
-        <v>196</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" t="s">
-        <v>99</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="R7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f>S7*Q7*(1/Sheet1!$B$13)</f>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f>(M7*1.5)</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8">
+        <v>22</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>301.21072800000007</v>
+      </c>
+      <c r="M8">
+        <v>20.6</v>
+      </c>
+      <c r="N8">
+        <f>0.5915*M8^2</f>
+        <v>251.00894000000005</v>
+      </c>
+      <c r="O8">
+        <v>8960</v>
+      </c>
+      <c r="P8" s="1"/>
+      <c r="Q8">
+        <f t="shared" ref="Q8:Q13" si="5">(J8*9.81)/O8</f>
+        <v>2.4087053571428575E-2</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="2"/>
+        <v>311.90460000000007</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="3"/>
+        <v>311.81724407265216</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="4"/>
+        <v>311.8202877997154</v>
+      </c>
+      <c r="U8">
+        <f>S8*Q8*(1/Sheet1!$B$13)</f>
+        <v>4.1726437013739961</v>
+      </c>
+      <c r="V8">
+        <f t="shared" ref="V8:V23" si="6">(M8*1.5)</f>
+        <v>30.900000000000002</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="M9">
+        <v>10.5556</v>
+      </c>
+      <c r="N9">
+        <v>50</v>
+      </c>
+      <c r="O9">
+        <v>240</v>
+      </c>
+      <c r="P9" s="1"/>
+      <c r="Q9">
+        <f t="shared" si="5"/>
+        <v>0.20437500000000003</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="2"/>
+        <v>81.894208149600004</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="3"/>
+        <v>81.871271827092002</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="4"/>
+        <v>81.87207099330395</v>
+      </c>
+      <c r="U9">
+        <f>S9*Q9*(1/Sheet1!$B$13)</f>
+        <v>9.2958006553677386</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="6"/>
+        <v>15.833400000000001</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>101</v>
       </c>
-      <c r="H7" t="s">
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
         <v>97</v>
       </c>
-      <c r="J7" t="s">
-        <v>197</v>
-      </c>
-      <c r="K7" t="s">
-        <v>213</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>27</v>
+      <c r="H10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2000</v>
+      </c>
+      <c r="P10" s="1"/>
+      <c r="Q10">
+        <f t="shared" si="5"/>
+        <v>2.4525000000000002E-2</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f>S10*Q10*(1/Sheet1!$B$13)</f>
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" t="s">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11">
+        <v>5.75</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>300</v>
+      </c>
+      <c r="P11" s="1"/>
+      <c r="Q11">
+        <f t="shared" si="5"/>
+        <v>0.18802500000000003</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f>S11*Q11*(1/Sheet1!$B$13)</f>
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I8" t="s">
-        <v>105</v>
-      </c>
-      <c r="J8" t="s">
-        <v>198</v>
-      </c>
-      <c r="K8" t="s">
-        <v>195</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" t="s">
-        <v>110</v>
-      </c>
-      <c r="G9" t="s">
-        <v>108</v>
-      </c>
-      <c r="H9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I9" t="s">
-        <v>109</v>
-      </c>
-      <c r="J9" t="s">
-        <v>102</v>
-      </c>
-      <c r="K9" t="s">
-        <v>202</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>30</v>
+    <row r="12" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12">
+        <v>16.7</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H12" t="s">
+        <v>119</v>
+      </c>
+      <c r="I12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12">
+        <v>18</v>
+      </c>
+      <c r="K12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="N12">
+        <v>50</v>
+      </c>
+      <c r="O12">
+        <v>82</v>
+      </c>
+      <c r="P12" s="1"/>
+      <c r="Q12">
+        <f t="shared" si="5"/>
+        <v>2.1534146341463418</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f>S12*Q12*(1/Sheet1!$B$13)</f>
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10" t="s">
-        <v>114</v>
-      </c>
-      <c r="F10" t="s">
-        <v>113</v>
-      </c>
-      <c r="G10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H10" t="s">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13">
+        <v>4.5</v>
+      </c>
+      <c r="K13" t="s">
+        <v>128</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2000</v>
+      </c>
+      <c r="P13" s="1"/>
+      <c r="Q13">
+        <f t="shared" si="5"/>
+        <v>2.2072500000000002E-2</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f>S13*Q13*(1/Sheet1!$B$13)</f>
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14">
+        <v>15.27</v>
+      </c>
+      <c r="H14" t="s">
         <v>111</v>
       </c>
-      <c r="I10" t="s">
-        <v>115</v>
-      </c>
-      <c r="J10" t="s">
-        <v>102</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>32</v>
+      <c r="I14" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14">
+        <v>3.7</v>
+      </c>
+      <c r="K14" t="s">
+        <v>134</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="1"/>
+      <c r="R14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f>S14*Q14*(1/Sheet1!$B$13)</f>
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G11" t="s">
-        <v>117</v>
-      </c>
-      <c r="H11" t="s">
-        <v>116</v>
-      </c>
-      <c r="J11" t="s">
-        <v>201</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H12" t="s">
-        <v>120</v>
-      </c>
-      <c r="I12" t="s">
-        <v>122</v>
-      </c>
-      <c r="J12" t="s">
-        <v>176</v>
-      </c>
-      <c r="K12" t="s">
-        <v>196</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" t="s">
-        <v>132</v>
-      </c>
-      <c r="E13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" t="s">
-        <v>128</v>
-      </c>
-      <c r="H13" t="s">
-        <v>97</v>
-      </c>
-      <c r="I13" t="s">
-        <v>130</v>
-      </c>
-      <c r="J13" t="s">
-        <v>202</v>
-      </c>
-      <c r="K13" t="s">
-        <v>216</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="15" spans="1:24" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>136</v>
-      </c>
-      <c r="D14" t="s">
-        <v>135</v>
-      </c>
-      <c r="E14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H14" t="s">
-        <v>116</v>
-      </c>
-      <c r="I14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J14" t="s">
-        <v>203</v>
-      </c>
-      <c r="K14" t="s">
-        <v>217</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>42</v>
       </c>
       <c r="B15" t="s">
         <v>137</v>
@@ -2971,367 +7673,824 @@
       <c r="C15" t="s">
         <v>138</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" t="s">
         <v>140</v>
-      </c>
-      <c r="F15" t="s">
-        <v>142</v>
-      </c>
-      <c r="G15" t="s">
-        <v>128</v>
-      </c>
-      <c r="H15" t="s">
-        <v>139</v>
       </c>
       <c r="I15" t="s">
         <v>141</v>
       </c>
-      <c r="J15" t="s">
-        <v>223</v>
+      <c r="J15">
+        <v>41</v>
       </c>
       <c r="K15" t="s">
-        <v>176</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>43</v>
+        <v>142</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>119.95620000000001</v>
+      </c>
+      <c r="M15">
+        <v>13</v>
+      </c>
+      <c r="N15">
+        <f>0.5915*M15^2</f>
+        <v>99.96350000000001</v>
+      </c>
+      <c r="O15" s="10">
+        <v>16703.68</v>
+      </c>
+      <c r="P15" s="1"/>
+      <c r="Q15">
+        <f>(J15*9.81)/O15</f>
+        <v>2.4079125079024506E-2</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="2"/>
+        <v>124.215</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="3"/>
+        <v>124.18021078395279</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="4"/>
+        <v>124.18142293842941</v>
+      </c>
+      <c r="U15">
+        <f>S15*Q15*(1/Sheet1!$B$13)</f>
+        <v>1.6611949043369039</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="6"/>
+        <v>19.5</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" t="s">
         <v>146</v>
       </c>
-      <c r="C16" t="s">
-        <v>148</v>
-      </c>
-      <c r="E16" t="s">
-        <v>143</v>
+      <c r="E16">
+        <v>31</v>
       </c>
       <c r="F16" t="s">
         <v>147</v>
       </c>
       <c r="G16" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H16" t="s">
+        <v>149</v>
+      </c>
+      <c r="I16" t="s">
+        <v>150</v>
+      </c>
+      <c r="J16">
+        <v>103.05800000000001</v>
+      </c>
+      <c r="K16" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>638.82000000000005</v>
+      </c>
+      <c r="M16">
+        <v>30</v>
+      </c>
+      <c r="N16">
+        <f>0.5915*M16^2</f>
+        <v>532.35</v>
+      </c>
+      <c r="O16">
+        <v>10080</v>
+      </c>
+      <c r="P16" s="1"/>
+      <c r="Q16">
+        <f>(J16*9.81)/O16</f>
+        <v>0.10029751785714286</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="2"/>
+        <v>661.5</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="3"/>
+        <v>661.3147319855475</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="4"/>
+        <v>661.32118724607369</v>
+      </c>
+      <c r="U16">
+        <f>S16*Q16*(1/Sheet1!$B$13)</f>
+        <v>36.849014522506721</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" t="s">
+        <v>157</v>
+      </c>
+      <c r="H17" t="s">
+        <v>158</v>
+      </c>
+      <c r="I17" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17">
+        <v>45</v>
+      </c>
+      <c r="K17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>136.921515370458</v>
+      </c>
+      <c r="M17">
+        <v>13.8889</v>
+      </c>
+      <c r="N17">
+        <f>0.5915*M17^2</f>
+        <v>114.10126280871501</v>
+      </c>
+      <c r="O17">
+        <v>2941</v>
+      </c>
+      <c r="P17" s="1"/>
+      <c r="Q17">
+        <f>(J17*9.81)/O17</f>
+        <v>0.15010200612036723</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>141.78263425935</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="3"/>
+        <v>141.74292483057741</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="4"/>
+        <v>141.74430841915219</v>
+      </c>
+      <c r="U17">
+        <f>S17*Q17*(1/Sheet1!$B$13)</f>
+        <v>11.819942983576713</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="6"/>
+        <v>20.833349999999999</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" t="s">
+        <v>126</v>
+      </c>
+      <c r="H18" t="s">
+        <v>164</v>
+      </c>
+      <c r="I18" t="s">
+        <v>106</v>
+      </c>
+      <c r="J18">
+        <v>4.7</v>
+      </c>
+      <c r="K18" t="s">
+        <v>165</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>45.427199999999999</v>
+      </c>
+      <c r="M18">
+        <v>8</v>
+      </c>
+      <c r="N18">
+        <f>0.5915*M18^2</f>
+        <v>37.856000000000002</v>
+      </c>
+      <c r="P18" s="1"/>
+      <c r="R18">
+        <f t="shared" si="2"/>
+        <v>47.04</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="3"/>
+        <v>47.026825385638936</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="4"/>
+        <v>47.02728442638746</v>
+      </c>
+      <c r="U18">
+        <f>S18*Q18*(1/Sheet1!$B$13)</f>
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="X18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19">
+        <v>36</v>
+      </c>
+      <c r="G19" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19" t="s">
+        <v>158</v>
+      </c>
+      <c r="I19" t="s">
+        <v>170</v>
+      </c>
+      <c r="J19">
+        <v>30</v>
+      </c>
+      <c r="K19" t="s">
+        <v>171</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>231.38275114499999</v>
+      </c>
+      <c r="M19">
+        <v>18.055</v>
+      </c>
+      <c r="N19">
+        <f>0.5915*M19^2</f>
+        <v>192.81895928750001</v>
+      </c>
+      <c r="O19">
+        <v>279.63745</v>
+      </c>
+      <c r="P19" s="1"/>
+      <c r="Q19">
+        <f>(J19*9.81)/O19</f>
+        <v>1.0524341428517532</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="2"/>
+        <v>239.59752337499998</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="3"/>
+        <v>239.5304186774589</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="4"/>
+        <v>239.53275679451835</v>
+      </c>
+      <c r="U19">
+        <f>S19*Q19*(1/Sheet1!$B$13)</f>
+        <v>140.04999492651837</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="6"/>
+        <v>27.0825</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>173</v>
       </c>
-      <c r="I16" t="s">
-        <v>145</v>
-      </c>
-      <c r="J16" t="s">
-        <v>226</v>
-      </c>
-      <c r="K16" t="s">
-        <v>227</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>44</v>
+      <c r="B20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F20" t="s">
+        <v>176</v>
+      </c>
+      <c r="H20" t="s">
+        <v>177</v>
+      </c>
+      <c r="I20" t="s">
+        <v>178</v>
+      </c>
+      <c r="J20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K20" t="s">
+        <v>179</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="1"/>
+      <c r="R20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <f>S20*Q20*(1/Sheet1!$B$13)</f>
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" t="s">
-        <v>205</v>
-      </c>
-      <c r="C17" t="s">
-        <v>153</v>
-      </c>
-      <c r="E17" t="s">
-        <v>152</v>
-      </c>
-      <c r="F17" t="s">
-        <v>151</v>
-      </c>
-      <c r="G17" t="s">
-        <v>149</v>
-      </c>
-      <c r="H17" t="s">
-        <v>174</v>
-      </c>
-      <c r="I17" t="s">
-        <v>88</v>
-      </c>
-      <c r="J17" t="s">
-        <v>204</v>
-      </c>
-      <c r="K17" t="s">
+    <row r="21" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>182</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H21" t="s">
+        <v>184</v>
+      </c>
+      <c r="I21" t="s">
+        <v>185</v>
+      </c>
+      <c r="J21">
+        <v>2.5</v>
+      </c>
+      <c r="K21" t="s">
+        <v>114</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="1"/>
+      <c r="R21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <f>S21*Q21*(1/Sheet1!$B$13)</f>
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>187</v>
+      </c>
+      <c r="B22" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" t="s">
+        <v>175</v>
+      </c>
+      <c r="E22">
+        <v>15.4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>189</v>
+      </c>
+      <c r="H22" t="s">
+        <v>111</v>
+      </c>
+      <c r="I22" t="s">
+        <v>190</v>
+      </c>
+      <c r="J22">
+        <v>7.82</v>
+      </c>
+      <c r="K22" t="s">
+        <v>191</v>
+      </c>
+      <c r="L22">
+        <f>0.5915*M22^2</f>
+        <v>35.161185150000001</v>
+      </c>
+      <c r="M22">
+        <v>7.71</v>
+      </c>
+      <c r="P22" s="1"/>
+      <c r="R22">
+        <f t="shared" si="2"/>
+        <v>43.691413499999996</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="3"/>
+        <v>43.679176732913419</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="4"/>
+        <v>43.679603096415917</v>
+      </c>
+      <c r="U22">
+        <f>S22*Q22*(1/Sheet1!$B$13)</f>
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="6"/>
+        <v>11.565</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>193</v>
+      </c>
+      <c r="B23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" t="s">
+        <v>194</v>
+      </c>
+      <c r="F23" t="s">
+        <v>195</v>
+      </c>
+      <c r="G23" t="s">
+        <v>196</v>
+      </c>
+      <c r="H23" t="s">
+        <v>197</v>
+      </c>
+      <c r="I23" t="s">
+        <v>198</v>
+      </c>
+      <c r="J23">
+        <v>74.84</v>
+      </c>
+      <c r="K23" t="s">
+        <v>199</v>
+      </c>
+      <c r="L23">
+        <f>0.5915*M23^2</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="1"/>
+      <c r="R23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <f>S23*Q23*(1/Sheet1!$B$13)</f>
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X24" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Q35" t="s">
+        <v>217</v>
+      </c>
+      <c r="R35" t="s">
         <v>218</v>
       </c>
-      <c r="O17" t="s">
-        <v>48</v>
+      <c r="S35" t="s">
+        <v>219</v>
+      </c>
+      <c r="V35" t="s">
+        <v>219</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" t="s">
-        <v>155</v>
-      </c>
-      <c r="E18" t="s">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="R36">
+        <v>0.17780625</v>
+      </c>
+      <c r="S36">
+        <v>1.1613421487812867</v>
+      </c>
+      <c r="V36">
+        <v>1.1613421487812867</v>
+      </c>
+      <c r="W36">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="R37">
+        <v>0.19129500000000002</v>
+      </c>
+      <c r="S37">
+        <v>25.456095244946951</v>
+      </c>
+      <c r="V37">
+        <v>25.456095244946951</v>
+      </c>
+      <c r="W37">
+        <v>231.38275114499999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R38">
+        <v>9.0833333333333335E-2</v>
+      </c>
+      <c r="S38">
+        <v>2.3731129477012245</v>
+      </c>
+      <c r="V38">
+        <v>2.3731129477012245</v>
+      </c>
+      <c r="W38">
+        <v>45.427199999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R39">
+        <v>2.4087053571428575E-2</v>
+      </c>
+      <c r="S39">
+        <v>4.1726437013739961</v>
+      </c>
+      <c r="V39">
+        <v>4.1726437013739961</v>
+      </c>
+      <c r="W39">
+        <v>301.21072800000007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>201</v>
+      </c>
+      <c r="B40" t="s">
         <v>114</v>
-      </c>
-      <c r="F18" t="s">
-        <v>154</v>
-      </c>
-      <c r="G18" t="s">
-        <v>128</v>
-      </c>
-      <c r="H18" t="s">
-        <v>175</v>
-      </c>
-      <c r="I18" t="s">
-        <v>115</v>
-      </c>
-      <c r="J18" t="s">
-        <v>206</v>
-      </c>
-      <c r="K18" t="s">
-        <v>203</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" t="s">
-        <v>157</v>
-      </c>
-      <c r="E19" t="s">
-        <v>159</v>
-      </c>
-      <c r="G19" t="s">
-        <v>128</v>
-      </c>
-      <c r="H19" t="s">
-        <v>174</v>
-      </c>
-      <c r="I19" t="s">
-        <v>158</v>
-      </c>
-      <c r="J19" t="s">
-        <v>207</v>
-      </c>
-      <c r="K19" t="s">
-        <v>219</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C20" t="s">
-        <v>162</v>
-      </c>
-      <c r="F20" t="s">
-        <v>163</v>
-      </c>
-      <c r="H20" t="s">
-        <v>166</v>
-      </c>
-      <c r="I20" t="s">
-        <v>161</v>
-      </c>
-      <c r="J20" t="s">
-        <v>208</v>
-      </c>
-      <c r="K20" t="s">
-        <v>220</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" t="s">
-        <v>164</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H21" t="s">
-        <v>165</v>
-      </c>
-      <c r="I21" t="s">
-        <v>167</v>
-      </c>
-      <c r="J21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K21" t="s">
-        <v>121</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" t="s">
-        <v>169</v>
-      </c>
-      <c r="C22" t="s">
-        <v>162</v>
-      </c>
-      <c r="E22" t="s">
-        <v>170</v>
-      </c>
-      <c r="G22" t="s">
-        <v>172</v>
-      </c>
-      <c r="H22" t="s">
-        <v>116</v>
-      </c>
-      <c r="I22" t="s">
-        <v>171</v>
-      </c>
-      <c r="J22" t="s">
-        <v>224</v>
-      </c>
-      <c r="K22" t="s">
-        <v>225</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" t="s">
-        <v>176</v>
-      </c>
-      <c r="C23" t="s">
-        <v>181</v>
-      </c>
-      <c r="F23" t="s">
-        <v>179</v>
-      </c>
-      <c r="G23" t="s">
-        <v>177</v>
-      </c>
-      <c r="H23" t="s">
-        <v>180</v>
-      </c>
-      <c r="I23" t="s">
-        <v>178</v>
-      </c>
-      <c r="J23" t="s">
-        <v>221</v>
-      </c>
-      <c r="K23" t="s">
-        <v>222</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>182</v>
-      </c>
-      <c r="B40" t="s">
-        <v>121</v>
       </c>
       <c r="C40" t="s">
         <v>138</v>
       </c>
       <c r="D40" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="E40" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="F40" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="G40" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H40" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="I40" t="s">
-        <v>185</v>
+        <v>206</v>
+      </c>
+      <c r="R40">
+        <v>0.20437500000000003</v>
+      </c>
+      <c r="S40">
+        <v>9.2958006553677386</v>
+      </c>
+      <c r="V40">
+        <v>9.2958006553677386</v>
+      </c>
+      <c r="W40">
+        <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="R41">
+        <v>2.4079125079024506E-2</v>
+      </c>
+      <c r="S41">
+        <v>1.6611949043369039</v>
+      </c>
+      <c r="V41">
+        <v>1.6611949043369039</v>
+      </c>
+      <c r="W41">
+        <v>119.95620000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>187</v>
+        <v>207</v>
+      </c>
+      <c r="R42">
+        <v>0.10029751785714286</v>
+      </c>
+      <c r="S42">
+        <v>36.849014522506721</v>
+      </c>
+      <c r="V42">
+        <v>36.849014522506721</v>
+      </c>
+      <c r="W42">
+        <v>638.82000000000005</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="B43" t="s">
-        <v>190</v>
+        <v>209</v>
+      </c>
+      <c r="R43">
+        <v>0.15010200612036723</v>
+      </c>
+      <c r="S43">
+        <v>11.819942983576713</v>
+      </c>
+      <c r="V43">
+        <v>11.819942983576713</v>
+      </c>
+      <c r="W43">
+        <v>136.921515370458</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="R44">
+        <v>1.0524341428517532</v>
+      </c>
+      <c r="S44">
+        <v>140.04999492651837</v>
+      </c>
+      <c r="V44">
+        <v>140.04999492651837</v>
+      </c>
+      <c r="W44">
+        <v>231.38275114499999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Q46" t="s">
+        <v>217</v>
+      </c>
+      <c r="R46" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>188</v>
+        <v>210</v>
+      </c>
+      <c r="Q47">
+        <v>11.76</v>
+      </c>
+      <c r="R47">
+        <v>0.17780625</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Q48">
+        <v>239.59752337499998</v>
+      </c>
+      <c r="R48">
+        <v>0.19129500000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Q49">
+        <v>47.04</v>
+      </c>
+      <c r="R49">
+        <v>9.0833333333333335E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B50">
         <v>10</v>
@@ -3347,8 +8506,20 @@
         <f>9.81*C50</f>
         <v>53.955000000000005</v>
       </c>
+      <c r="Q50">
+        <v>311.90460000000007</v>
+      </c>
+      <c r="R50">
+        <v>2.4087053571428575E-2</v>
+      </c>
+      <c r="V50" t="s">
+        <v>220</v>
+      </c>
+      <c r="W50" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B51" s="7">
         <v>5.8</v>
       </c>
@@ -3356,15 +8527,27 @@
         <v>5.2</v>
       </c>
       <c r="D51">
-        <f t="shared" ref="D51:E68" si="0">9.81*B51</f>
+        <f t="shared" ref="D51:E68" si="7">9.81*B51</f>
         <v>56.898000000000003</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>51.012000000000008</v>
       </c>
+      <c r="Q51">
+        <v>81.894208149600004</v>
+      </c>
+      <c r="R51">
+        <v>0.20437500000000003</v>
+      </c>
+      <c r="V51">
+        <v>1.1613421487812867</v>
+      </c>
+      <c r="W51">
+        <v>200</v>
+      </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>39</v>
       </c>
@@ -3372,15 +8555,27 @@
         <v>29</v>
       </c>
       <c r="D52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>382.59000000000003</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>284.49</v>
       </c>
+      <c r="Q52">
+        <v>124.215</v>
+      </c>
+      <c r="R52">
+        <v>2.4079125079024506E-2</v>
+      </c>
+      <c r="V52">
+        <v>25.456095244946951</v>
+      </c>
+      <c r="W52">
+        <v>192.81895928750001</v>
+      </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>20</v>
       </c>
@@ -3388,15 +8583,27 @@
         <v>16</v>
       </c>
       <c r="D53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>196.20000000000002</v>
       </c>
       <c r="E53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>156.96</v>
       </c>
+      <c r="Q53">
+        <v>661.5</v>
+      </c>
+      <c r="R53">
+        <v>0.10029751785714286</v>
+      </c>
+      <c r="V53">
+        <v>8.3429752067621159</v>
+      </c>
+      <c r="W53">
+        <v>133.08750000000001</v>
+      </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>2</v>
       </c>
@@ -3404,15 +8611,27 @@
         <v>1.5</v>
       </c>
       <c r="D54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>19.62</v>
       </c>
       <c r="E54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>14.715</v>
       </c>
+      <c r="Q54">
+        <v>141.78263425935</v>
+      </c>
+      <c r="R54">
+        <v>0.15010200612036723</v>
+      </c>
+      <c r="V54">
+        <v>4.1726437013739961</v>
+      </c>
+      <c r="W54">
+        <v>251.00894000000005</v>
+      </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>22</v>
       </c>
@@ -3420,15 +8639,27 @@
         <v>17</v>
       </c>
       <c r="D55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>215.82000000000002</v>
       </c>
       <c r="E55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>166.77</v>
       </c>
+      <c r="Q55">
+        <v>239.59752337499998</v>
+      </c>
+      <c r="R55">
+        <v>1.0524341428517532</v>
+      </c>
+      <c r="V55">
+        <v>9.2958006553677386</v>
+      </c>
+      <c r="W55">
+        <v>50</v>
+      </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>5</v>
       </c>
@@ -3436,15 +8667,21 @@
         <v>4.5</v>
       </c>
       <c r="D56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>49.050000000000004</v>
       </c>
       <c r="E56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>44.145000000000003</v>
       </c>
+      <c r="V56">
+        <v>1.6611949043369039</v>
+      </c>
+      <c r="W56">
+        <v>99.96350000000001</v>
+      </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>18</v>
       </c>
@@ -3452,15 +8689,21 @@
         <v>16</v>
       </c>
       <c r="D57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>176.58</v>
       </c>
       <c r="E57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>156.96</v>
       </c>
+      <c r="V57">
+        <v>36.849014522506721</v>
+      </c>
+      <c r="W57">
+        <v>532.35</v>
+      </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>4.5</v>
       </c>
@@ -3468,15 +8711,21 @@
         <v>3.5</v>
       </c>
       <c r="D58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>44.145000000000003</v>
       </c>
       <c r="E58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>34.335000000000001</v>
       </c>
+      <c r="V58">
+        <v>11.819942983576713</v>
+      </c>
+      <c r="W58">
+        <v>114.10126280871501</v>
+      </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>3.7</v>
       </c>
@@ -3484,15 +8733,15 @@
         <v>3.2</v>
       </c>
       <c r="D59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>36.297000000000004</v>
       </c>
       <c r="E59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>31.392000000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>41</v>
       </c>
@@ -3500,15 +8749,15 @@
         <v>18</v>
       </c>
       <c r="D60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>402.21000000000004</v>
       </c>
       <c r="E60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>176.58</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>103.05800000000001</v>
       </c>
@@ -3516,15 +8765,15 @@
         <v>74.84</v>
       </c>
       <c r="D61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1010.9989800000001</v>
       </c>
       <c r="E61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>734.18040000000008</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>45</v>
       </c>
@@ -3532,15 +8781,15 @@
         <v>38</v>
       </c>
       <c r="D62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>441.45000000000005</v>
       </c>
       <c r="E62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>372.78000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>4.7</v>
       </c>
@@ -3548,15 +8797,15 @@
         <v>3.7</v>
       </c>
       <c r="D63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>46.107000000000006</v>
       </c>
       <c r="E63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>36.297000000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>30</v>
       </c>
@@ -3564,11 +8813,11 @@
         <v>27</v>
       </c>
       <c r="D64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>294.3</v>
       </c>
       <c r="E64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>264.87</v>
       </c>
     </row>
@@ -3580,11 +8829,11 @@
         <v>0.8</v>
       </c>
       <c r="D65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>10.791000000000002</v>
       </c>
       <c r="E65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>7.8480000000000008</v>
       </c>
     </row>
@@ -3596,11 +8845,11 @@
         <v>2</v>
       </c>
       <c r="D66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>24.525000000000002</v>
       </c>
       <c r="E66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>19.62</v>
       </c>
     </row>
@@ -3612,11 +8861,11 @@
         <v>6.1461766000000004</v>
       </c>
       <c r="D67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>76.714200000000005</v>
       </c>
       <c r="E67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>60.293992446000004</v>
       </c>
     </row>
@@ -3628,53 +8877,75 @@
         <v>56.84</v>
       </c>
       <c r="D68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>734.18040000000008</v>
       </c>
       <c r="E68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>557.60040000000004</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O3" r:id="rId1" xr:uid="{14349030-D58E-4DF5-A715-54CE4244C7A8}"/>
-    <hyperlink ref="O4" r:id="rId2" xr:uid="{4529D792-929C-45E0-B988-E51A360D3075}"/>
-    <hyperlink ref="O5" r:id="rId3" xr:uid="{D73F9913-63C5-45A3-ADD3-4069BE77F38F}"/>
-    <hyperlink ref="O6" r:id="rId4" xr:uid="{A0FF0B37-7AA2-4CB1-ACDA-9C43C2AB6AD0}"/>
-    <hyperlink ref="O8" r:id="rId5" xr:uid="{CF0CF13C-39F3-4537-8E7D-2FDC8CD03110}"/>
-    <hyperlink ref="O7" r:id="rId6" xr:uid="{EFAF058F-B5E0-462E-8CA2-DE1BBA7E8752}"/>
-    <hyperlink ref="O9" r:id="rId7" xr:uid="{DB3A3A99-16F6-465D-8AC0-B429C444D4A0}"/>
-    <hyperlink ref="O10" r:id="rId8" location="open2113345" xr:uid="{1060B9C8-4C45-42B0-A35E-8A2FC075BC34}"/>
-    <hyperlink ref="O11" r:id="rId9" xr:uid="{A7387E46-A29D-40D4-9A27-501FAC1245B6}"/>
-    <hyperlink ref="O12" r:id="rId10" display="https://geo-matching.com/products/dt26x-lidar" xr:uid="{2589287F-5B0F-44DC-99EE-37E9327B7991}"/>
-    <hyperlink ref="O13" r:id="rId11" xr:uid="{9E80060E-1F80-4108-8384-8AB2765C08E1}"/>
-    <hyperlink ref="O14" r:id="rId12" xr:uid="{06FDE2DA-3381-47CF-B0B3-1745AD9891FA}"/>
-    <hyperlink ref="O15" r:id="rId13" xr:uid="{98DBB26E-C34A-4088-BB29-6EE548A612A9}"/>
-    <hyperlink ref="O16" r:id="rId14" xr:uid="{A225B6AB-EB86-4338-8321-6E26881D86B6}"/>
-    <hyperlink ref="O18" r:id="rId15" xr:uid="{85621AE7-84F6-41D9-A2DF-643980CDDF5B}"/>
-    <hyperlink ref="O19" r:id="rId16" xr:uid="{900B2C21-16AB-466B-9315-E0A2B73C680D}"/>
-    <hyperlink ref="O20" r:id="rId17" xr:uid="{25FB80D9-0099-4417-998B-1A6834B35C4A}"/>
-    <hyperlink ref="O21" r:id="rId18" xr:uid="{C4387FA1-9141-4977-ADA8-BB9424230DB8}"/>
-    <hyperlink ref="O22" r:id="rId19" xr:uid="{456CF6FD-2238-4DD6-8EAC-5ED248D1EC48}"/>
-    <hyperlink ref="O23" r:id="rId20" xr:uid="{65BD2F53-8E28-49EA-A593-C99F8A553D72}"/>
+    <hyperlink ref="X4" r:id="rId1" xr:uid="{6FFC14BF-051B-408D-95E6-22DC7EC59700}"/>
+    <hyperlink ref="X5" r:id="rId2" xr:uid="{97F1849E-D32C-4AF1-A546-CDE7EF2B342F}"/>
+    <hyperlink ref="X6" r:id="rId3" xr:uid="{E17AA71A-AEE2-4D9D-8DE1-1439AA0964D2}"/>
+    <hyperlink ref="X7" r:id="rId4" xr:uid="{CAC900F7-5F86-43D9-92A5-F2178D6824D5}"/>
+    <hyperlink ref="X9" r:id="rId5" xr:uid="{3692E931-29BA-4630-AF0D-34AAB6D9251D}"/>
+    <hyperlink ref="X8" r:id="rId6" xr:uid="{D2222087-4454-42A0-91C3-CC944A51B6CC}"/>
+    <hyperlink ref="X10" r:id="rId7" xr:uid="{29FA759A-E256-4F75-8CA6-63451EBE76DF}"/>
+    <hyperlink ref="X11" r:id="rId8" location="open2113345" xr:uid="{F67DA01E-01B4-4887-8154-70CA289E7828}"/>
+    <hyperlink ref="X12" r:id="rId9" xr:uid="{57C41CCB-4CFA-4D03-B6B3-A304B331E0B5}"/>
+    <hyperlink ref="X13" r:id="rId10" display="https://geo-matching.com/products/dt26x-lidar" xr:uid="{248F3A0B-27AF-4E4B-9B6B-AA366CE38E04}"/>
+    <hyperlink ref="X14" r:id="rId11" xr:uid="{FB1F2E7B-7B2B-41B9-A09D-1B498503AA75}"/>
+    <hyperlink ref="X15" r:id="rId12" xr:uid="{5364B255-5306-4E4C-B28E-503F74C64E40}"/>
+    <hyperlink ref="X16" r:id="rId13" xr:uid="{F8A6F76C-EF06-4BC6-BC4A-0E789D382BDD}"/>
+    <hyperlink ref="X17" r:id="rId14" xr:uid="{0CAE0E4D-0D1F-454F-B986-5640E4C61946}"/>
+    <hyperlink ref="X19" r:id="rId15" xr:uid="{CDFF1CA9-DF7C-45B5-B568-31ACA3592FF8}"/>
+    <hyperlink ref="X20" r:id="rId16" xr:uid="{DC70C9EF-9AB5-4BE6-9932-1CA60B4BEA4B}"/>
+    <hyperlink ref="X21" r:id="rId17" xr:uid="{C5813F21-4BD0-4633-A129-2ECA82CE9C3D}"/>
+    <hyperlink ref="X22" r:id="rId18" xr:uid="{B3989EF0-4BB2-48F2-B825-4A997F8AB434}"/>
+    <hyperlink ref="X23" r:id="rId19" xr:uid="{4ACE87C1-F3B2-4702-A27E-AA0AB1983EA7}"/>
+    <hyperlink ref="X24" r:id="rId20" xr:uid="{CD009D2D-A12B-4AAF-B45C-AF5B8B761BA9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId21"/>
   <drawing r:id="rId22"/>
+  <tableParts count="1">
+    <tablePart r:id="rId23"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14345DE1-9605-4840-B9ED-F101CB74BBDB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:I22"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <f>0.5*Sheet1!B15*Sheet1!B14^2*Sheet1!B13</f>
+        <v>357.21000000000004</v>
+      </c>
+      <c r="B1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <f>(Sheet1!B13*Sheet1!B15*(Sheet1!B16/0.5915))/2</f>
+        <v>357.21000000000004</v>
+      </c>
+      <c r="B2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Assignment 1/Aircraft-Design-Ref-Sheet.xlsx
+++ b/Assignment 1/Aircraft-Design-Ref-Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4602fdf878c58603/Documents/GitHub/Aircraft-Design-USC-Fall24/Assignment 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="649" documentId="8_{997DC446-395C-45DF-8FB0-9A6B12FE88E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEDF020A-F668-4CE1-BF6F-E4F3CFDC170F}"/>
+  <xr:revisionPtr revIDLastSave="1048" documentId="8_{997DC446-395C-45DF-8FB0-9A6B12FE88E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40F9A82C-D31E-415C-A8EF-7E7C99F12695}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B9DCB17C-302B-4D14-92AB-4707EE77551C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{B9DCB17C-302B-4D14-92AB-4707EE77551C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="248">
   <si>
     <t>Req type</t>
   </si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>landing length</t>
-  </si>
-  <si>
-    <t>Power Watts (ALL electric are at 80% efficiency)</t>
   </si>
   <si>
     <t>W/P</t>
@@ -716,13 +713,95 @@
   </si>
   <si>
     <t>Take off speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Watts </t>
+  </si>
+  <si>
+    <t>power plant</t>
+  </si>
+  <si>
+    <t>cruise speed m/s</t>
+  </si>
+  <si>
+    <t>cruise altitude m</t>
+  </si>
+  <si>
+    <t>Payload kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+10</t>
+  </si>
+  <si>
+    <t>Cruise Altitude m</t>
+  </si>
+  <si>
+    <t>Cruise Speed m/s</t>
+  </si>
+  <si>
+    <t>Power Plant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service Ceiling </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Speed m/s </t>
+  </si>
+  <si>
+    <t>ETOW kg</t>
+  </si>
+  <si>
+    <t>Landing Length m</t>
+  </si>
+  <si>
+    <t>Take off speed m/s</t>
+  </si>
+  <si>
+    <t>W/S Landing</t>
+  </si>
+  <si>
+    <t>Range km</t>
+  </si>
+  <si>
+    <t>Endurance hours</t>
+  </si>
+  <si>
+    <t>Lithium Ion Battery</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Battery</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>Lithium Polymer Battery</t>
+  </si>
+  <si>
+    <t>Lihtium Ion Battery</t>
+  </si>
+  <si>
+    <t>W/S Clean N/m^2</t>
+  </si>
+  <si>
+    <t>W/S Takeoff N/m^2</t>
+  </si>
+  <si>
+    <t>W/S Landing N/m^2</t>
+  </si>
+  <si>
+    <t>Power w</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -781,8 +860,30 @@
       <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -795,8 +896,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -843,13 +955,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -871,8 +999,37 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{C98E6F8B-5B96-47B5-ACD8-4818478E98AA}"/>
@@ -6311,10 +6468,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6018F96A-26B1-44CC-B14C-F9F2C07F1CCD}" name="Table1" displayName="Table1" ref="W50:W59" totalsRowShown="0">
   <autoFilter ref="W50:W59" xr:uid="{6018F96A-26B1-44CC-B14C-F9F2C07F1CCD}"/>
@@ -6781,13 +6934,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25428C8A-662B-400E-8D06-D9245C758624}">
   <dimension ref="A1:X68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K20" zoomScale="106" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView topLeftCell="E1" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A2:V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
@@ -6808,7 +6961,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" ht="79.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
@@ -6819,13 +6972,13 @@
         <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
+        <v>224</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>32</v>
+        <v>222</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>33</v>
@@ -6848,59 +7001,59 @@
       <c r="M2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="9" t="s">
         <v>40</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>41</v>
+        <v>221</v>
       </c>
       <c r="P2" s="9"/>
       <c r="Q2" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R2" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="S2" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="T2" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="U2" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="V2" s="9" t="s">
         <v>220</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
         <v>44</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>45</v>
-      </c>
-      <c r="C3" t="s">
-        <v>46</v>
       </c>
       <c r="E3">
         <v>18.8</v>
       </c>
       <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
         <v>47</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>48</v>
-      </c>
-      <c r="I3" t="s">
-        <v>49</v>
       </c>
       <c r="J3">
         <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L3">
         <f>1.2*N3</f>
@@ -6919,42 +7072,42 @@
         <v>15</v>
       </c>
       <c r="X3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="114" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
         <v>52</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>53</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="E4" s="7">
         <v>8</v>
       </c>
       <c r="F4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" t="s">
         <v>56</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="J4" s="7">
         <v>5.8</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L21" si="0">1.2*N4</f>
@@ -6995,39 +7148,39 @@
         <v>6</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="157.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" t="s">
         <v>63</v>
-      </c>
-      <c r="C5" t="s">
-        <v>64</v>
       </c>
       <c r="E5">
         <v>22.2</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" t="s">
         <v>65</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" t="s">
         <v>67</v>
-      </c>
-      <c r="I5" t="s">
-        <v>68</v>
       </c>
       <c r="J5">
         <v>39</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
@@ -7069,39 +7222,39 @@
         <v>27.0825</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
         <v>71</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>72</v>
-      </c>
-      <c r="C6" t="s">
-        <v>73</v>
       </c>
       <c r="E6">
         <v>20</v>
       </c>
       <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
         <v>74</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>75</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>76</v>
-      </c>
-      <c r="I6" t="s">
-        <v>77</v>
       </c>
       <c r="J6">
         <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
@@ -7142,34 +7295,34 @@
         <v>9.0628366337100008</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
         <v>80</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>81</v>
-      </c>
-      <c r="C7" t="s">
-        <v>82</v>
       </c>
       <c r="E7">
         <v>18</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" t="s">
         <v>83</v>
-      </c>
-      <c r="H7" t="s">
-        <v>84</v>
       </c>
       <c r="J7">
         <v>2</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
@@ -7197,39 +7350,39 @@
         <v>0</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" t="s">
         <v>87</v>
       </c>
-      <c r="B8" t="s">
-        <v>88</v>
-      </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8">
         <v>25</v>
       </c>
       <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
         <v>89</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>90</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>91</v>
-      </c>
-      <c r="I8" t="s">
-        <v>92</v>
       </c>
       <c r="J8">
         <v>22</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
@@ -7271,36 +7424,36 @@
         <v>30.900000000000002</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9">
         <v>18</v>
       </c>
       <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
         <v>96</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" t="s">
         <v>97</v>
-      </c>
-      <c r="H9" t="s">
-        <v>84</v>
-      </c>
-      <c r="I9" t="s">
-        <v>98</v>
       </c>
       <c r="J9">
         <v>5</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
@@ -7341,33 +7494,33 @@
         <v>15.833400000000001</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" t="s">
         <v>101</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>102</v>
-      </c>
-      <c r="C10" t="s">
-        <v>103</v>
       </c>
       <c r="E10">
         <v>16</v>
       </c>
       <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" t="s">
         <v>104</v>
       </c>
-      <c r="G10" t="s">
-        <v>97</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>105</v>
-      </c>
-      <c r="I10" t="s">
-        <v>106</v>
       </c>
       <c r="J10">
         <v>5</v>
@@ -7405,27 +7558,27 @@
         <v>0</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>17</v>
       </c>
       <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
         <v>109</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>110</v>
-      </c>
-      <c r="H11" t="s">
-        <v>111</v>
       </c>
       <c r="J11">
         <v>5.75</v>
@@ -7463,42 +7616,42 @@
         <v>0</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" t="s">
         <v>113</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>114</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>115</v>
-      </c>
-      <c r="D12" t="s">
-        <v>116</v>
       </c>
       <c r="E12">
         <v>16.7</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
         <v>117</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>118</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>119</v>
-      </c>
-      <c r="I12" t="s">
-        <v>120</v>
       </c>
       <c r="J12">
         <v>18</v>
       </c>
       <c r="K12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L12">
         <f t="shared" si="0"/>
@@ -7536,39 +7689,39 @@
         <v>0</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" t="s">
         <v>122</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>123</v>
-      </c>
-      <c r="C13" t="s">
-        <v>124</v>
       </c>
       <c r="E13">
         <v>16</v>
       </c>
       <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
         <v>125</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" t="s">
         <v>126</v>
-      </c>
-      <c r="H13" t="s">
-        <v>84</v>
-      </c>
-      <c r="I13" t="s">
-        <v>127</v>
       </c>
       <c r="J13">
         <v>4.5</v>
       </c>
       <c r="K13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
@@ -7603,36 +7756,36 @@
         <v>0</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
         <v>130</v>
       </c>
-      <c r="B14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>131</v>
-      </c>
-      <c r="D14" t="s">
-        <v>132</v>
       </c>
       <c r="E14">
         <v>15.27</v>
       </c>
       <c r="H14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J14">
         <v>3.7</v>
       </c>
       <c r="K14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
@@ -7660,39 +7813,39 @@
         <v>0</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" t="s">
         <v>136</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>137</v>
-      </c>
-      <c r="C15" t="s">
-        <v>138</v>
       </c>
       <c r="E15">
         <v>19</v>
       </c>
       <c r="F15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" t="s">
         <v>139</v>
       </c>
-      <c r="G15" t="s">
-        <v>126</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>140</v>
-      </c>
-      <c r="I15" t="s">
-        <v>141</v>
       </c>
       <c r="J15">
         <v>41</v>
       </c>
       <c r="K15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
@@ -7734,39 +7887,39 @@
         <v>19.5</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" t="s">
         <v>144</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>145</v>
-      </c>
-      <c r="C16" t="s">
-        <v>146</v>
       </c>
       <c r="E16">
         <v>31</v>
       </c>
       <c r="F16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" t="s">
         <v>147</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>148</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>149</v>
-      </c>
-      <c r="I16" t="s">
-        <v>150</v>
       </c>
       <c r="J16">
         <v>103.05800000000001</v>
       </c>
       <c r="K16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
@@ -7808,39 +7961,39 @@
         <v>45</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" t="s">
         <v>153</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>154</v>
-      </c>
-      <c r="C17" t="s">
-        <v>155</v>
       </c>
       <c r="E17">
         <v>25</v>
       </c>
       <c r="F17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" t="s">
         <v>156</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>157</v>
       </c>
-      <c r="H17" t="s">
-        <v>158</v>
-      </c>
       <c r="I17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J17">
         <v>45</v>
       </c>
       <c r="K17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L17">
         <f t="shared" si="0"/>
@@ -7882,39 +8035,39 @@
         <v>20.833349999999999</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" t="s">
         <v>161</v>
-      </c>
-      <c r="B18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" t="s">
-        <v>162</v>
       </c>
       <c r="E18">
         <v>16</v>
       </c>
       <c r="F18" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" t="s">
         <v>163</v>
       </c>
-      <c r="G18" t="s">
-        <v>126</v>
-      </c>
-      <c r="H18" t="s">
-        <v>164</v>
-      </c>
       <c r="I18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J18">
         <v>4.7</v>
       </c>
       <c r="K18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
@@ -7949,36 +8102,36 @@
         <v>12</v>
       </c>
       <c r="X18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19" t="s">
         <v>167</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>168</v>
-      </c>
-      <c r="C19" t="s">
-        <v>169</v>
       </c>
       <c r="E19">
         <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J19">
         <v>30</v>
       </c>
       <c r="K19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
@@ -8020,33 +8173,33 @@
         <v>27.0825</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" t="s">
         <v>173</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>174</v>
       </c>
-      <c r="C20" t="s">
+      <c r="F20" t="s">
         <v>175</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
         <v>176</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>177</v>
-      </c>
-      <c r="I20" t="s">
-        <v>178</v>
       </c>
       <c r="J20">
         <v>1.1000000000000001</v>
       </c>
       <c r="K20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
@@ -8074,33 +8227,33 @@
         <v>0</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
         <v>181</v>
       </c>
-      <c r="B21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="F21" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="H21" t="s">
         <v>183</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>184</v>
-      </c>
-      <c r="I21" t="s">
-        <v>185</v>
       </c>
       <c r="J21">
         <v>2.5</v>
       </c>
       <c r="K21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
@@ -8128,36 +8281,36 @@
         <v>0</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>186</v>
+      </c>
+      <c r="B22" t="s">
         <v>187</v>
       </c>
-      <c r="B22" t="s">
-        <v>188</v>
-      </c>
       <c r="C22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E22">
         <v>15.4</v>
       </c>
       <c r="G22" t="s">
+        <v>188</v>
+      </c>
+      <c r="H22" t="s">
+        <v>110</v>
+      </c>
+      <c r="I22" t="s">
         <v>189</v>
-      </c>
-      <c r="H22" t="s">
-        <v>111</v>
-      </c>
-      <c r="I22" t="s">
-        <v>190</v>
       </c>
       <c r="J22">
         <v>7.82</v>
       </c>
       <c r="K22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L22">
         <f>0.5915*M22^2</f>
@@ -8188,36 +8341,36 @@
         <v>11.565</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" t="s">
         <v>193</v>
       </c>
-      <c r="B23" t="s">
-        <v>142</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="F23" t="s">
         <v>194</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>195</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>196</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>197</v>
-      </c>
-      <c r="I23" t="s">
-        <v>198</v>
       </c>
       <c r="J23">
         <v>74.84</v>
       </c>
       <c r="K23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L23">
         <f>0.5915*M23^2</f>
@@ -8245,26 +8398,26 @@
         <v>0</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="X24" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="Q35" t="s">
+        <v>216</v>
+      </c>
+      <c r="R35" t="s">
         <v>217</v>
       </c>
-      <c r="R35" t="s">
+      <c r="S35" t="s">
         <v>218</v>
       </c>
-      <c r="S35" t="s">
-        <v>219</v>
-      </c>
       <c r="V35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
@@ -8349,31 +8502,31 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>200</v>
+      </c>
+      <c r="B40" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" t="s">
         <v>201</v>
       </c>
-      <c r="B40" t="s">
-        <v>114</v>
-      </c>
-      <c r="C40" t="s">
-        <v>138</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>202</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>203</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
+        <v>125</v>
+      </c>
+      <c r="H40" t="s">
         <v>204</v>
       </c>
-      <c r="G40" t="s">
-        <v>126</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>205</v>
-      </c>
-      <c r="I40" t="s">
-        <v>206</v>
       </c>
       <c r="R40">
         <v>0.20437500000000003</v>
@@ -8404,7 +8557,7 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R42">
         <v>0.10029751785714286</v>
@@ -8421,10 +8574,10 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>207</v>
+      </c>
+      <c r="B43" t="s">
         <v>208</v>
-      </c>
-      <c r="B43" t="s">
-        <v>209</v>
       </c>
       <c r="R43">
         <v>0.15010200612036723</v>
@@ -8455,15 +8608,15 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="Q46" t="s">
+        <v>216</v>
+      </c>
+      <c r="R46" t="s">
         <v>217</v>
-      </c>
-      <c r="R46" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q47">
         <v>11.76</v>
@@ -8490,7 +8643,7 @@
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B50">
         <v>10</v>
@@ -8513,7 +8666,7 @@
         <v>2.4087053571428575E-2</v>
       </c>
       <c r="V50" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="W50" t="s">
         <v>40</v>
@@ -8919,31 +9072,2679 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14345DE1-9605-4840-B9ED-F101CB74BBDB}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="54" zoomScaleNormal="56" workbookViewId="0">
+      <selection activeCell="N60" sqref="N60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="21.5546875" customWidth="1"/>
+    <col min="9" max="9" width="18.77734375" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="23.5546875" customWidth="1"/>
+    <col min="13" max="13" width="29.44140625" customWidth="1"/>
+    <col min="14" max="14" width="22.44140625" customWidth="1"/>
+    <col min="15" max="15" width="11.21875" customWidth="1"/>
+    <col min="16" max="16" width="23.33203125" customWidth="1"/>
+    <col min="17" max="17" width="12.88671875" customWidth="1"/>
+    <col min="18" max="18" width="20.88671875" customWidth="1"/>
+    <col min="19" max="19" width="23.21875" customWidth="1"/>
+    <col min="20" max="20" width="22.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1">
         <f>0.5*Sheet1!B15*Sheet1!B14^2*Sheet1!B13</f>
         <v>357.21000000000004</v>
       </c>
       <c r="B1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>(Sheet1!B13*Sheet1!B15*(Sheet1!B16/0.5915))/2</f>
         <v>357.21000000000004</v>
       </c>
       <c r="B2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:22" ht="43.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="R6" s="14" t="s">
         <v>213</v>
       </c>
+      <c r="S6" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="U6" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="V6" s="11"/>
+    </row>
+    <row r="7" spans="1:22" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7">
+        <v>18.8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7">
+        <f>1.2*N7</f>
+        <v>70.98</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <f>0.5915*M7^2</f>
+        <v>59.150000000000006</v>
+      </c>
+      <c r="P7">
+        <f>(G7*1.5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="A8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8">
+        <v>0.6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="7">
+        <v>8</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="16">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ref="L8:L25" si="0">1.2*N8</f>
+        <v>240</v>
+      </c>
+      <c r="M8" s="7">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>200</v>
+      </c>
+      <c r="O8">
+        <v>320</v>
+      </c>
+      <c r="P8">
+        <f>(M8*1.5)</f>
+        <v>6</v>
+      </c>
+      <c r="Q8">
+        <f>(J8*9.81)/O8</f>
+        <v>0.17780625</v>
+      </c>
+      <c r="R8">
+        <f>0.5*1.225*1.2*(M8)^2</f>
+        <v>11.76</v>
+      </c>
+      <c r="S8">
+        <f>0.5*1.225*2*(M8*0.77448819)^2</f>
+        <v>11.756706346409734</v>
+      </c>
+      <c r="T8">
+        <f>0.5*1.225*2.1*(M8*0.75582677)^2</f>
+        <v>11.756821106596865</v>
+      </c>
+      <c r="U8">
+        <f>S8*Q8*(1/Sheet1!$B$13)</f>
+        <v>1.1613421487812867</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="216" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9">
+        <v>22.2</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9">
+        <v>39</v>
+      </c>
+      <c r="K9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>231.38275114499999</v>
+      </c>
+      <c r="M9">
+        <v>18.055</v>
+      </c>
+      <c r="N9">
+        <f>0.5915*M9^2</f>
+        <v>192.81895928750001</v>
+      </c>
+      <c r="O9">
+        <v>2000</v>
+      </c>
+      <c r="P9">
+        <f t="shared" ref="P9:P27" si="1">(M9*1.5)</f>
+        <v>27.0825</v>
+      </c>
+      <c r="Q9">
+        <f>(J9*9.81)/O9</f>
+        <v>0.19129500000000002</v>
+      </c>
+      <c r="R9">
+        <f t="shared" ref="R9:R27" si="2">0.5*1.225*1.2*(M9)^2</f>
+        <v>239.59752337499998</v>
+      </c>
+      <c r="S9">
+        <f t="shared" ref="S9:S27" si="3">0.5*1.225*2*(M9*0.77448819)^2</f>
+        <v>239.5304186774589</v>
+      </c>
+      <c r="T9">
+        <f t="shared" ref="T9:T27" si="4">0.5*1.225*2.1*(M9*0.75582677)^2</f>
+        <v>239.53275679451835</v>
+      </c>
+      <c r="U9">
+        <f>S9*Q9*(1/Sheet1!$B$13)</f>
+        <v>25.456095244946951</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>45.427199999999999</v>
+      </c>
+      <c r="M10">
+        <v>8</v>
+      </c>
+      <c r="N10">
+        <f>0.5915*M10^2</f>
+        <v>37.856000000000002</v>
+      </c>
+      <c r="O10">
+        <v>2160</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="Q10">
+        <f>(J10*9.81)/O10</f>
+        <v>9.0833333333333335E-2</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>47.04</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="3"/>
+        <v>47.026825385638936</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="4"/>
+        <v>47.02728442638746</v>
+      </c>
+      <c r="U10">
+        <f>S10*Q10*(1/Sheet1!$B$13)</f>
+        <v>2.3731129477012245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11">
+        <v>0.5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11">
+        <v>18</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f>S11*Q11*(1/Sheet1!$B$13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12">
+        <v>22</v>
+      </c>
+      <c r="K12" t="s">
+        <v>92</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>301.21072800000007</v>
+      </c>
+      <c r="M12">
+        <v>20.6</v>
+      </c>
+      <c r="N12">
+        <f>0.5915*M12^2</f>
+        <v>251.00894000000005</v>
+      </c>
+      <c r="O12">
+        <v>8960</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>30.900000000000002</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" ref="Q12:Q17" si="5">(J12*9.81)/O12</f>
+        <v>2.4087053571428575E-2</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="2"/>
+        <v>311.90460000000007</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="3"/>
+        <v>311.81724407265216</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="4"/>
+        <v>311.8202877997154</v>
+      </c>
+      <c r="U12">
+        <f>S12*Q12*(1/Sheet1!$B$13)</f>
+        <v>4.1726437013739961</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13">
+        <v>0.5</v>
+      </c>
+      <c r="E13">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" t="s">
+        <v>97</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="M13">
+        <v>10.5556</v>
+      </c>
+      <c r="N13">
+        <v>50</v>
+      </c>
+      <c r="O13">
+        <v>240</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>15.833400000000001</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="5"/>
+        <v>0.20437500000000003</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="2"/>
+        <v>81.894208149600004</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="3"/>
+        <v>81.871271827092002</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="4"/>
+        <v>81.87207099330395</v>
+      </c>
+      <c r="U13">
+        <f>S13*Q13*(1/Sheet1!$B$13)</f>
+        <v>9.2958006553677386</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" t="s">
+        <v>105</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2000</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="5"/>
+        <v>2.4525000000000002E-2</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f>S14*Q14*(1/Sheet1!$B$13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" t="s">
+        <v>110</v>
+      </c>
+      <c r="J15">
+        <v>5.75</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>300</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="5"/>
+        <v>0.18802500000000003</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f>S15*Q15*(1/Sheet1!$B$13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16">
+        <v>16.7</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" t="s">
+        <v>119</v>
+      </c>
+      <c r="J16">
+        <v>18</v>
+      </c>
+      <c r="K16" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="N16">
+        <v>50</v>
+      </c>
+      <c r="O16">
+        <v>82</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="5"/>
+        <v>2.1534146341463418</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f>S16*Q16*(1/Sheet1!$B$13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" t="s">
+        <v>126</v>
+      </c>
+      <c r="J17">
+        <v>4.5</v>
+      </c>
+      <c r="K17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2000</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="5"/>
+        <v>2.2072500000000002E-2</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <f>S17*Q17*(1/Sheet1!$B$13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18">
+        <v>15.27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" t="s">
+        <v>132</v>
+      </c>
+      <c r="J18">
+        <v>3.7</v>
+      </c>
+      <c r="K18" t="s">
+        <v>133</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <f>S18*Q18*(1/Sheet1!$B$13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" t="s">
+        <v>139</v>
+      </c>
+      <c r="I19" t="s">
+        <v>140</v>
+      </c>
+      <c r="J19">
+        <v>41</v>
+      </c>
+      <c r="K19" t="s">
+        <v>141</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>119.95620000000001</v>
+      </c>
+      <c r="M19">
+        <v>13</v>
+      </c>
+      <c r="N19">
+        <f>0.5915*M19^2</f>
+        <v>99.96350000000001</v>
+      </c>
+      <c r="O19" s="10">
+        <v>16703.68</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>19.5</v>
+      </c>
+      <c r="Q19">
+        <f>(J19*9.81)/O19</f>
+        <v>2.4079125079024506E-2</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="2"/>
+        <v>124.215</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="3"/>
+        <v>124.18021078395279</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="4"/>
+        <v>124.18142293842941</v>
+      </c>
+      <c r="U19">
+        <f>S19*Q19*(1/Sheet1!$B$13)</f>
+        <v>1.6611949043369039</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20">
+        <v>31</v>
+      </c>
+      <c r="F20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G20" t="s">
+        <v>147</v>
+      </c>
+      <c r="H20" t="s">
+        <v>148</v>
+      </c>
+      <c r="I20" t="s">
+        <v>149</v>
+      </c>
+      <c r="J20">
+        <v>103.05800000000001</v>
+      </c>
+      <c r="K20" t="s">
+        <v>150</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>638.82000000000005</v>
+      </c>
+      <c r="M20">
+        <v>30</v>
+      </c>
+      <c r="N20">
+        <f>0.5915*M20^2</f>
+        <v>532.35</v>
+      </c>
+      <c r="O20">
+        <v>10080</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="Q20">
+        <f>(J20*9.81)/O20</f>
+        <v>0.10029751785714286</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="2"/>
+        <v>661.5</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="3"/>
+        <v>661.3147319855475</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="4"/>
+        <v>661.32118724607369</v>
+      </c>
+      <c r="U20">
+        <f>S20*Q20*(1/Sheet1!$B$13)</f>
+        <v>36.849014522506721</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E21">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>155</v>
+      </c>
+      <c r="G21" t="s">
+        <v>156</v>
+      </c>
+      <c r="H21" t="s">
+        <v>157</v>
+      </c>
+      <c r="I21" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21">
+        <v>45</v>
+      </c>
+      <c r="K21" t="s">
+        <v>158</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>136.921515370458</v>
+      </c>
+      <c r="M21">
+        <v>13.8889</v>
+      </c>
+      <c r="N21">
+        <f>0.5915*M21^2</f>
+        <v>114.10126280871501</v>
+      </c>
+      <c r="O21">
+        <v>2941</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="1"/>
+        <v>20.833349999999999</v>
+      </c>
+      <c r="Q21">
+        <f>(J21*9.81)/O21</f>
+        <v>0.15010200612036723</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="2"/>
+        <v>141.78263425935</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="3"/>
+        <v>141.74292483057741</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="4"/>
+        <v>141.74430841915219</v>
+      </c>
+      <c r="U21">
+        <f>S21*Q21*(1/Sheet1!$B$13)</f>
+        <v>11.819942983576713</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E22">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G22" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" t="s">
+        <v>163</v>
+      </c>
+      <c r="I22" t="s">
+        <v>105</v>
+      </c>
+      <c r="J22">
+        <v>4.7</v>
+      </c>
+      <c r="K22" t="s">
+        <v>164</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>45.427199999999999</v>
+      </c>
+      <c r="M22">
+        <v>8</v>
+      </c>
+      <c r="N22">
+        <f>0.5915*M22^2</f>
+        <v>37.856000000000002</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="2"/>
+        <v>47.04</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="3"/>
+        <v>47.026825385638936</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="4"/>
+        <v>47.02728442638746</v>
+      </c>
+      <c r="U22">
+        <f>S22*Q22*(1/Sheet1!$B$13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23">
+        <v>36</v>
+      </c>
+      <c r="G23" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" t="s">
+        <v>157</v>
+      </c>
+      <c r="I23" t="s">
+        <v>169</v>
+      </c>
+      <c r="J23">
+        <v>30</v>
+      </c>
+      <c r="K23" t="s">
+        <v>170</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>231.38275114499999</v>
+      </c>
+      <c r="M23">
+        <v>18.055</v>
+      </c>
+      <c r="N23">
+        <f>0.5915*M23^2</f>
+        <v>192.81895928750001</v>
+      </c>
+      <c r="O23">
+        <v>279.63745</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="1"/>
+        <v>27.0825</v>
+      </c>
+      <c r="Q23">
+        <f>(J23*9.81)/O23</f>
+        <v>1.0524341428517532</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="2"/>
+        <v>239.59752337499998</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="3"/>
+        <v>239.5304186774589</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="4"/>
+        <v>239.53275679451835</v>
+      </c>
+      <c r="U23">
+        <f>S23*Q23*(1/Sheet1!$B$13)</f>
+        <v>140.04999492651837</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" t="s">
+        <v>174</v>
+      </c>
+      <c r="F24" t="s">
+        <v>175</v>
+      </c>
+      <c r="H24" t="s">
+        <v>176</v>
+      </c>
+      <c r="I24" t="s">
+        <v>177</v>
+      </c>
+      <c r="J24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K24" t="s">
+        <v>178</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <f>S24*Q24*(1/Sheet1!$B$13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>181</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H25" t="s">
+        <v>183</v>
+      </c>
+      <c r="I25" t="s">
+        <v>184</v>
+      </c>
+      <c r="J25">
+        <v>2.5</v>
+      </c>
+      <c r="K25" t="s">
+        <v>113</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <f>S25*Q25*(1/Sheet1!$B$13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E26">
+        <v>15.4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>188</v>
+      </c>
+      <c r="H26" t="s">
+        <v>110</v>
+      </c>
+      <c r="I26" t="s">
+        <v>189</v>
+      </c>
+      <c r="J26">
+        <v>7.82</v>
+      </c>
+      <c r="K26" t="s">
+        <v>190</v>
+      </c>
+      <c r="L26">
+        <f>0.5915*M26^2</f>
+        <v>35.161185150000001</v>
+      </c>
+      <c r="M26">
+        <v>7.71</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>11.565</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="2"/>
+        <v>43.691413499999996</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="3"/>
+        <v>43.679176732913419</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="4"/>
+        <v>43.679603096415917</v>
+      </c>
+      <c r="U26">
+        <f>S26*Q26*(1/Sheet1!$B$13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" t="s">
+        <v>193</v>
+      </c>
+      <c r="F27" t="s">
+        <v>194</v>
+      </c>
+      <c r="G27" t="s">
+        <v>195</v>
+      </c>
+      <c r="H27" t="s">
+        <v>196</v>
+      </c>
+      <c r="I27" t="s">
+        <v>197</v>
+      </c>
+      <c r="J27">
+        <v>74.84</v>
+      </c>
+      <c r="K27" t="s">
+        <v>198</v>
+      </c>
+      <c r="L27">
+        <f>0.5915*M27^2</f>
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <f>S27*Q27*(1/Sheet1!$B$13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="1.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="1:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="1:21" ht="64.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M34" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N34" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="O34" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="P34" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q34" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="R34" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="S34" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="T34" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="U34" s="14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="28.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="17">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C35" s="17">
+        <v>100</v>
+      </c>
+      <c r="D35" s="23"/>
+      <c r="E35" s="17">
+        <v>18.8</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="G35" s="23"/>
+      <c r="H35" s="17">
+        <v>4</v>
+      </c>
+      <c r="I35" s="17">
+        <v>35.833300000000001</v>
+      </c>
+      <c r="J35" s="17">
+        <v>10</v>
+      </c>
+      <c r="K35" s="17">
+        <v>5.5</v>
+      </c>
+      <c r="L35" s="17">
+        <f>1.2*N35</f>
+        <v>70.98</v>
+      </c>
+      <c r="M35" s="17">
+        <v>10</v>
+      </c>
+      <c r="N35" s="17">
+        <f>0.5915*M35^2</f>
+        <v>59.150000000000006</v>
+      </c>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+    </row>
+    <row r="36" spans="1:21" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="C36" s="17">
+        <v>250</v>
+      </c>
+      <c r="D36" s="17">
+        <v>600</v>
+      </c>
+      <c r="E36" s="18">
+        <v>8</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="G36" s="17">
+        <v>9000</v>
+      </c>
+      <c r="H36" s="17">
+        <v>2</v>
+      </c>
+      <c r="I36" s="18">
+        <v>14</v>
+      </c>
+      <c r="J36" s="18">
+        <v>5.8</v>
+      </c>
+      <c r="K36" s="18">
+        <v>5.2</v>
+      </c>
+      <c r="L36" s="17">
+        <f t="shared" ref="L36:L53" si="6">1.2*N36</f>
+        <v>240</v>
+      </c>
+      <c r="M36" s="18">
+        <v>4</v>
+      </c>
+      <c r="N36" s="17">
+        <v>200</v>
+      </c>
+      <c r="O36" s="17">
+        <v>320</v>
+      </c>
+      <c r="P36" s="17">
+        <f>(M36*1.5)</f>
+        <v>6</v>
+      </c>
+      <c r="Q36" s="17">
+        <f>(J36*9.81)/O36</f>
+        <v>0.17780625</v>
+      </c>
+      <c r="R36" s="17">
+        <f>0.5*1.225*1.2*(M36)^2</f>
+        <v>11.76</v>
+      </c>
+      <c r="S36" s="17">
+        <f>0.5*1.225*2*(M36*0.77448819)^2</f>
+        <v>11.756706346409734</v>
+      </c>
+      <c r="T36" s="17">
+        <f>0.5*1.225*2.1*(M36*0.75582677)^2</f>
+        <v>11.756821106596865</v>
+      </c>
+      <c r="U36" s="17">
+        <f>S36*Q36*(1/Sheet1!$B$13)</f>
+        <v>1.1613421487812867</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="18">
+        <v>10</v>
+      </c>
+      <c r="C37" s="17">
+        <v>240</v>
+      </c>
+      <c r="D37" s="23"/>
+      <c r="E37" s="17">
+        <v>22.2</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="G37" s="17">
+        <v>6000</v>
+      </c>
+      <c r="H37" s="18">
+        <v>3</v>
+      </c>
+      <c r="I37" s="17">
+        <v>38.8889</v>
+      </c>
+      <c r="J37" s="17">
+        <v>39</v>
+      </c>
+      <c r="K37" s="17">
+        <v>29</v>
+      </c>
+      <c r="L37" s="17">
+        <f t="shared" si="6"/>
+        <v>231.38275114499999</v>
+      </c>
+      <c r="M37" s="17">
+        <v>18.055</v>
+      </c>
+      <c r="N37" s="17">
+        <f>0.5915*M37^2</f>
+        <v>192.81895928750001</v>
+      </c>
+      <c r="O37" s="17">
+        <v>2000</v>
+      </c>
+      <c r="P37" s="17">
+        <f t="shared" ref="P37:P55" si="7">(M37*1.5)</f>
+        <v>27.0825</v>
+      </c>
+      <c r="Q37" s="17">
+        <f>(J37*9.81)/O37</f>
+        <v>0.19129500000000002</v>
+      </c>
+      <c r="R37" s="17">
+        <f t="shared" ref="R37:R55" si="8">0.5*1.225*1.2*(M37)^2</f>
+        <v>239.59752337499998</v>
+      </c>
+      <c r="S37" s="17">
+        <f t="shared" ref="S37:S55" si="9">0.5*1.225*2*(M37*0.77448819)^2</f>
+        <v>239.5304186774589</v>
+      </c>
+      <c r="T37" s="17">
+        <f t="shared" ref="T37:T55" si="10">0.5*1.225*2.1*(M37*0.75582677)^2</f>
+        <v>239.53275679451835</v>
+      </c>
+      <c r="U37" s="17">
+        <f>S37*Q37*(1/Sheet1!$B$13)</f>
+        <v>25.456095244946951</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="17">
+        <v>4</v>
+      </c>
+      <c r="C38" s="17">
+        <v>400</v>
+      </c>
+      <c r="D38" s="23"/>
+      <c r="E38" s="17">
+        <v>20</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="G38" s="22">
+        <v>3500</v>
+      </c>
+      <c r="H38" s="17">
+        <v>5</v>
+      </c>
+      <c r="I38" s="17">
+        <v>30</v>
+      </c>
+      <c r="J38" s="17">
+        <v>20</v>
+      </c>
+      <c r="K38" s="17">
+        <v>16</v>
+      </c>
+      <c r="L38" s="17">
+        <f t="shared" si="6"/>
+        <v>45.427199999999999</v>
+      </c>
+      <c r="M38" s="17">
+        <v>8</v>
+      </c>
+      <c r="N38" s="17">
+        <f>0.5915*M38^2</f>
+        <v>37.856000000000002</v>
+      </c>
+      <c r="O38" s="17">
+        <v>2160</v>
+      </c>
+      <c r="P38" s="17">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q38" s="17">
+        <f>(J38*9.81)/O38</f>
+        <v>9.0833333333333335E-2</v>
+      </c>
+      <c r="R38" s="17">
+        <f t="shared" si="8"/>
+        <v>47.04</v>
+      </c>
+      <c r="S38" s="17">
+        <f t="shared" si="9"/>
+        <v>47.026825385638936</v>
+      </c>
+      <c r="T38" s="17">
+        <f t="shared" si="10"/>
+        <v>47.02728442638746</v>
+      </c>
+      <c r="U38" s="17">
+        <f>S38*Q38*(1/Sheet1!$B$13)</f>
+        <v>2.3731129477012245</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="C39" s="17">
+        <v>195</v>
+      </c>
+      <c r="D39" s="23"/>
+      <c r="E39" s="17">
+        <v>18</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="G39" s="17">
+        <v>3500</v>
+      </c>
+      <c r="H39" s="17">
+        <v>3</v>
+      </c>
+      <c r="I39" s="17">
+        <v>38.8889</v>
+      </c>
+      <c r="J39" s="17">
+        <v>2</v>
+      </c>
+      <c r="K39" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="23"/>
+      <c r="U39" s="23"/>
+    </row>
+    <row r="40" spans="1:21" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="17">
+        <v>5</v>
+      </c>
+      <c r="C40" s="17">
+        <v>100</v>
+      </c>
+      <c r="D40" s="23"/>
+      <c r="E40" s="17">
+        <v>25</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="G40" s="22">
+        <v>5950</v>
+      </c>
+      <c r="H40" s="17">
+        <v>18</v>
+      </c>
+      <c r="I40" s="17">
+        <v>41.2</v>
+      </c>
+      <c r="J40" s="17">
+        <v>22</v>
+      </c>
+      <c r="K40" s="17">
+        <v>17</v>
+      </c>
+      <c r="L40" s="17">
+        <f t="shared" si="6"/>
+        <v>301.21072800000007</v>
+      </c>
+      <c r="M40" s="17">
+        <v>20.6</v>
+      </c>
+      <c r="N40" s="17">
+        <f>0.5915*M40^2</f>
+        <v>251.00894000000005</v>
+      </c>
+      <c r="O40" s="17">
+        <v>8960</v>
+      </c>
+      <c r="P40" s="17">
+        <f t="shared" si="7"/>
+        <v>30.900000000000002</v>
+      </c>
+      <c r="Q40" s="17">
+        <f t="shared" ref="Q40:Q45" si="11">(J40*9.81)/O40</f>
+        <v>2.4087053571428575E-2</v>
+      </c>
+      <c r="R40" s="17">
+        <f t="shared" si="8"/>
+        <v>311.90460000000007</v>
+      </c>
+      <c r="S40" s="17">
+        <f t="shared" si="9"/>
+        <v>311.81724407265216</v>
+      </c>
+      <c r="T40" s="17">
+        <f t="shared" si="10"/>
+        <v>311.8202877997154</v>
+      </c>
+      <c r="U40" s="17">
+        <f>S40*Q40*(1/Sheet1!$B$13)</f>
+        <v>4.1726437013739961</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="17">
+        <v>18</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="G41" s="22">
+        <v>5000</v>
+      </c>
+      <c r="H41" s="17">
+        <v>3</v>
+      </c>
+      <c r="I41" s="17">
+        <v>33.333300000000001</v>
+      </c>
+      <c r="J41" s="17">
+        <v>5</v>
+      </c>
+      <c r="K41" s="17">
+        <v>4.5</v>
+      </c>
+      <c r="L41" s="17">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="M41" s="17">
+        <v>10.5556</v>
+      </c>
+      <c r="N41" s="17">
+        <v>50</v>
+      </c>
+      <c r="O41" s="17">
+        <v>240</v>
+      </c>
+      <c r="P41" s="17">
+        <f t="shared" si="7"/>
+        <v>15.833400000000001</v>
+      </c>
+      <c r="Q41" s="17">
+        <f t="shared" si="11"/>
+        <v>0.20437500000000003</v>
+      </c>
+      <c r="R41" s="17">
+        <f t="shared" si="8"/>
+        <v>81.894208149600004</v>
+      </c>
+      <c r="S41" s="17">
+        <f t="shared" si="9"/>
+        <v>81.871271827092002</v>
+      </c>
+      <c r="T41" s="17">
+        <f t="shared" si="10"/>
+        <v>81.87207099330395</v>
+      </c>
+      <c r="U41" s="17">
+        <f>S41*Q41*(1/Sheet1!$B$13)</f>
+        <v>9.2958006553677386</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="23"/>
+      <c r="C42" s="17">
+        <v>150</v>
+      </c>
+      <c r="D42" s="23"/>
+      <c r="E42" s="17">
+        <v>16</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="G42" s="22">
+        <v>5000</v>
+      </c>
+      <c r="H42" s="17">
+        <v>3</v>
+      </c>
+      <c r="I42" s="17">
+        <v>22</v>
+      </c>
+      <c r="J42" s="17">
+        <v>5</v>
+      </c>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="17">
+        <v>2000</v>
+      </c>
+      <c r="P42" s="23"/>
+      <c r="Q42" s="17">
+        <f t="shared" si="11"/>
+        <v>2.4525000000000002E-2</v>
+      </c>
+      <c r="R42" s="23"/>
+      <c r="S42" s="23"/>
+      <c r="T42" s="23"/>
+      <c r="U42" s="23"/>
+    </row>
+    <row r="43" spans="1:21" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" s="23"/>
+      <c r="C43" s="17">
+        <v>100</v>
+      </c>
+      <c r="D43" s="23"/>
+      <c r="E43" s="17">
+        <v>17</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="G43" s="22">
+        <v>5500</v>
+      </c>
+      <c r="H43" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="I43" s="23"/>
+      <c r="J43" s="17">
+        <v>5.75</v>
+      </c>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="17">
+        <v>300</v>
+      </c>
+      <c r="P43" s="23"/>
+      <c r="Q43" s="17">
+        <f t="shared" si="11"/>
+        <v>0.18802500000000003</v>
+      </c>
+      <c r="R43" s="23"/>
+      <c r="S43" s="23"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="23"/>
+    </row>
+    <row r="44" spans="1:21" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="23"/>
+      <c r="C44" s="17">
+        <v>85</v>
+      </c>
+      <c r="D44" s="17">
+        <v>550</v>
+      </c>
+      <c r="E44" s="17">
+        <v>16.7</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="G44" s="17">
+        <v>4000</v>
+      </c>
+      <c r="H44" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="I44" s="17">
+        <v>30.555599999999998</v>
+      </c>
+      <c r="J44" s="17">
+        <v>18</v>
+      </c>
+      <c r="K44" s="17">
+        <v>16</v>
+      </c>
+      <c r="L44" s="17">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="M44" s="23"/>
+      <c r="N44" s="17">
+        <v>50</v>
+      </c>
+      <c r="O44" s="17">
+        <v>82</v>
+      </c>
+      <c r="P44" s="23"/>
+      <c r="Q44" s="17">
+        <f t="shared" si="11"/>
+        <v>2.1534146341463418</v>
+      </c>
+      <c r="R44" s="23"/>
+      <c r="S44" s="23"/>
+      <c r="T44" s="23"/>
+      <c r="U44" s="23"/>
+    </row>
+    <row r="45" spans="1:21" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" s="17">
+        <v>1</v>
+      </c>
+      <c r="C45" s="17">
+        <v>180</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17">
+        <v>16</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="G45" s="17">
+        <v>5000</v>
+      </c>
+      <c r="H45" s="17">
+        <v>3</v>
+      </c>
+      <c r="I45" s="17">
+        <v>23.055599999999998</v>
+      </c>
+      <c r="J45" s="17">
+        <v>4.5</v>
+      </c>
+      <c r="K45" s="17">
+        <v>3.5</v>
+      </c>
+      <c r="L45" s="23"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="17">
+        <v>2000</v>
+      </c>
+      <c r="P45" s="23"/>
+      <c r="Q45" s="17">
+        <f t="shared" si="11"/>
+        <v>2.2072500000000002E-2</v>
+      </c>
+      <c r="R45" s="23"/>
+      <c r="S45" s="23"/>
+      <c r="T45" s="23"/>
+      <c r="U45" s="23"/>
+    </row>
+    <row r="46" spans="1:21" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="C46" s="17">
+        <v>30</v>
+      </c>
+      <c r="D46" s="17">
+        <v>400</v>
+      </c>
+      <c r="E46" s="17">
+        <v>15.27</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="G46" s="23"/>
+      <c r="H46" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="I46" s="17">
+        <v>23.6111</v>
+      </c>
+      <c r="J46" s="17">
+        <v>3.7</v>
+      </c>
+      <c r="K46" s="17">
+        <v>3.2</v>
+      </c>
+      <c r="L46" s="23"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
+      <c r="P46" s="23"/>
+      <c r="Q46" s="23"/>
+      <c r="R46" s="23"/>
+      <c r="S46" s="23"/>
+      <c r="T46" s="23"/>
+      <c r="U46" s="23"/>
+    </row>
+    <row r="47" spans="1:21" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B47" s="17">
+        <v>23</v>
+      </c>
+      <c r="C47" s="17">
+        <v>100</v>
+      </c>
+      <c r="D47" s="23"/>
+      <c r="E47" s="17">
+        <v>19</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="G47" s="17">
+        <v>5000</v>
+      </c>
+      <c r="H47" s="17">
+        <v>20</v>
+      </c>
+      <c r="I47" s="17">
+        <v>32</v>
+      </c>
+      <c r="J47" s="17">
+        <v>41</v>
+      </c>
+      <c r="K47" s="17">
+        <v>18</v>
+      </c>
+      <c r="L47" s="17">
+        <f t="shared" si="6"/>
+        <v>119.95620000000001</v>
+      </c>
+      <c r="M47" s="17">
+        <v>13</v>
+      </c>
+      <c r="N47" s="17">
+        <f>0.5915*M47^2</f>
+        <v>99.96350000000001</v>
+      </c>
+      <c r="O47" s="24">
+        <v>16703.68</v>
+      </c>
+      <c r="P47" s="17">
+        <f t="shared" si="7"/>
+        <v>19.5</v>
+      </c>
+      <c r="Q47" s="17">
+        <f>(J47*9.81)/O47</f>
+        <v>2.4079125079024506E-2</v>
+      </c>
+      <c r="R47" s="17">
+        <f t="shared" si="8"/>
+        <v>124.215</v>
+      </c>
+      <c r="S47" s="17">
+        <f t="shared" si="9"/>
+        <v>124.18021078395279</v>
+      </c>
+      <c r="T47" s="17">
+        <f t="shared" si="10"/>
+        <v>124.18142293842941</v>
+      </c>
+      <c r="U47" s="17">
+        <f>S47*Q47*(1/Sheet1!$B$13)</f>
+        <v>1.6611949043369039</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" s="17">
+        <f>50*0.2048</f>
+        <v>10.24</v>
+      </c>
+      <c r="C48" s="17">
+        <v>60</v>
+      </c>
+      <c r="D48" s="23"/>
+      <c r="E48" s="17">
+        <v>31</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="G48" s="17">
+        <f>16000*0.3048</f>
+        <v>4876.8</v>
+      </c>
+      <c r="H48" s="17">
+        <v>8</v>
+      </c>
+      <c r="I48" s="17">
+        <v>64.819999999999993</v>
+      </c>
+      <c r="J48" s="17">
+        <v>103.05800000000001</v>
+      </c>
+      <c r="K48" s="17">
+        <v>74.84</v>
+      </c>
+      <c r="L48" s="17">
+        <f t="shared" si="6"/>
+        <v>638.82000000000005</v>
+      </c>
+      <c r="M48" s="17">
+        <v>30</v>
+      </c>
+      <c r="N48" s="17">
+        <f>0.5915*M48^2</f>
+        <v>532.35</v>
+      </c>
+      <c r="O48" s="17">
+        <v>10080</v>
+      </c>
+      <c r="P48" s="17">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="Q48" s="17">
+        <f>(J48*9.81)/O48</f>
+        <v>0.10029751785714286</v>
+      </c>
+      <c r="R48" s="17">
+        <f t="shared" si="8"/>
+        <v>661.5</v>
+      </c>
+      <c r="S48" s="17">
+        <f t="shared" si="9"/>
+        <v>661.3147319855475</v>
+      </c>
+      <c r="T48" s="17">
+        <f t="shared" si="10"/>
+        <v>661.32118724607369</v>
+      </c>
+      <c r="U48" s="17">
+        <f>S48*Q48*(1/Sheet1!$B$13)</f>
+        <v>36.849014522506721</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49" s="17">
+        <v>7</v>
+      </c>
+      <c r="C49" s="17">
+        <v>80</v>
+      </c>
+      <c r="D49" s="23"/>
+      <c r="E49" s="17">
+        <v>25</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="G49" s="17">
+        <v>3000</v>
+      </c>
+      <c r="H49" s="17">
+        <v>10</v>
+      </c>
+      <c r="I49" s="17">
+        <v>38.8889</v>
+      </c>
+      <c r="J49" s="17">
+        <v>45</v>
+      </c>
+      <c r="K49" s="17">
+        <v>38</v>
+      </c>
+      <c r="L49" s="17">
+        <f t="shared" si="6"/>
+        <v>136.921515370458</v>
+      </c>
+      <c r="M49" s="17">
+        <v>13.8889</v>
+      </c>
+      <c r="N49" s="17">
+        <f>0.5915*M49^2</f>
+        <v>114.10126280871501</v>
+      </c>
+      <c r="O49" s="17">
+        <v>2941</v>
+      </c>
+      <c r="P49" s="17">
+        <f t="shared" si="7"/>
+        <v>20.833349999999999</v>
+      </c>
+      <c r="Q49" s="17">
+        <f>(J49*9.81)/O49</f>
+        <v>0.15010200612036723</v>
+      </c>
+      <c r="R49" s="17">
+        <f t="shared" si="8"/>
+        <v>141.78263425935</v>
+      </c>
+      <c r="S49" s="17">
+        <f t="shared" si="9"/>
+        <v>141.74292483057741</v>
+      </c>
+      <c r="T49" s="17">
+        <f t="shared" si="10"/>
+        <v>141.74430841915219</v>
+      </c>
+      <c r="U49" s="17">
+        <f>S49*Q49*(1/Sheet1!$B$13)</f>
+        <v>11.819942983576713</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="B50" s="17">
+        <v>1</v>
+      </c>
+      <c r="C50" s="17">
+        <v>210</v>
+      </c>
+      <c r="D50" s="23"/>
+      <c r="E50" s="17">
+        <v>16</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="G50" s="17">
+        <v>5000</v>
+      </c>
+      <c r="H50" s="17">
+        <v>3.5</v>
+      </c>
+      <c r="I50" s="17">
+        <v>22</v>
+      </c>
+      <c r="J50" s="17">
+        <v>4.7</v>
+      </c>
+      <c r="K50" s="17">
+        <v>3.7</v>
+      </c>
+      <c r="L50" s="17">
+        <f t="shared" si="6"/>
+        <v>45.427199999999999</v>
+      </c>
+      <c r="M50" s="17">
+        <v>8</v>
+      </c>
+      <c r="N50" s="17">
+        <f>0.5915*M50^2</f>
+        <v>37.856000000000002</v>
+      </c>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q50" s="23"/>
+      <c r="R50" s="17">
+        <f t="shared" si="8"/>
+        <v>47.04</v>
+      </c>
+      <c r="S50" s="17">
+        <f t="shared" si="9"/>
+        <v>47.026825385638936</v>
+      </c>
+      <c r="T50" s="17">
+        <f t="shared" si="10"/>
+        <v>47.02728442638746</v>
+      </c>
+      <c r="U50" s="23"/>
+    </row>
+    <row r="51" spans="1:21" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B51" s="17">
+        <v>3</v>
+      </c>
+      <c r="C51" s="17">
+        <v>1300</v>
+      </c>
+      <c r="D51" s="23"/>
+      <c r="E51" s="17">
+        <v>36</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="G51" s="17">
+        <v>5000</v>
+      </c>
+      <c r="H51" s="17">
+        <v>10</v>
+      </c>
+      <c r="I51" s="17">
+        <v>44.444400000000002</v>
+      </c>
+      <c r="J51" s="17">
+        <v>30</v>
+      </c>
+      <c r="K51" s="17">
+        <v>27</v>
+      </c>
+      <c r="L51" s="17">
+        <f t="shared" si="6"/>
+        <v>231.38275114499999</v>
+      </c>
+      <c r="M51" s="17">
+        <v>18.055</v>
+      </c>
+      <c r="N51" s="17">
+        <f>0.5915*M51^2</f>
+        <v>192.81895928750001</v>
+      </c>
+      <c r="O51" s="17">
+        <v>279.63745</v>
+      </c>
+      <c r="P51" s="17">
+        <f t="shared" si="7"/>
+        <v>27.0825</v>
+      </c>
+      <c r="Q51" s="17">
+        <f>(J51*9.81)/O51</f>
+        <v>1.0524341428517532</v>
+      </c>
+      <c r="R51" s="17">
+        <f t="shared" si="8"/>
+        <v>239.59752337499998</v>
+      </c>
+      <c r="S51" s="17">
+        <f t="shared" si="9"/>
+        <v>239.5304186774589</v>
+      </c>
+      <c r="T51" s="17">
+        <f t="shared" si="10"/>
+        <v>239.53275679451835</v>
+      </c>
+      <c r="U51" s="17">
+        <f>S51*Q51*(1/Sheet1!$B$13)</f>
+        <v>140.04999492651837</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B52" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="C52" s="17">
+        <v>15</v>
+      </c>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="G52" s="23"/>
+      <c r="H52" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="I52" s="17">
+        <v>27.777799999999999</v>
+      </c>
+      <c r="J52" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K52" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="L52" s="23"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="23"/>
+      <c r="P52" s="23"/>
+      <c r="Q52" s="23"/>
+      <c r="R52" s="23"/>
+      <c r="S52" s="23"/>
+      <c r="T52" s="23"/>
+      <c r="U52" s="23"/>
+    </row>
+    <row r="53" spans="1:21" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B53" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="C53" s="17">
+        <v>20</v>
+      </c>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="G53" s="23"/>
+      <c r="H53" s="17">
+        <v>1</v>
+      </c>
+      <c r="I53" s="17">
+        <v>25</v>
+      </c>
+      <c r="J53" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="K53" s="17">
+        <v>2</v>
+      </c>
+      <c r="L53" s="23"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="23"/>
+      <c r="P53" s="23"/>
+      <c r="Q53" s="23"/>
+      <c r="R53" s="23"/>
+      <c r="S53" s="23"/>
+      <c r="T53" s="23"/>
+      <c r="U53" s="23"/>
+    </row>
+    <row r="54" spans="1:21" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="B54" s="17">
+        <v>3.7</v>
+      </c>
+      <c r="C54" s="17">
+        <v>15</v>
+      </c>
+      <c r="D54" s="23"/>
+      <c r="E54" s="17">
+        <v>15.4</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="G54" s="17">
+        <f>0.3048*10000</f>
+        <v>3048</v>
+      </c>
+      <c r="H54" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="I54" s="17">
+        <v>29.837800000000001</v>
+      </c>
+      <c r="J54" s="17">
+        <v>7.82</v>
+      </c>
+      <c r="K54" s="17">
+        <v>6.1461766000000004</v>
+      </c>
+      <c r="L54" s="17">
+        <f>0.5915*M54^2</f>
+        <v>35.161185150000001</v>
+      </c>
+      <c r="M54" s="17">
+        <v>7.71</v>
+      </c>
+      <c r="N54" s="23"/>
+      <c r="O54" s="23"/>
+      <c r="P54" s="17">
+        <f t="shared" si="7"/>
+        <v>11.565</v>
+      </c>
+      <c r="Q54" s="23"/>
+      <c r="R54" s="17">
+        <f t="shared" si="8"/>
+        <v>43.691413499999996</v>
+      </c>
+      <c r="S54" s="17">
+        <f t="shared" si="9"/>
+        <v>43.679176732913419</v>
+      </c>
+      <c r="T54" s="17">
+        <f t="shared" si="10"/>
+        <v>43.679603096415917</v>
+      </c>
+      <c r="U54" s="23"/>
+    </row>
+    <row r="55" spans="1:21" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B55" s="17">
+        <v>18</v>
+      </c>
+      <c r="C55" s="17">
+        <v>92.6</v>
+      </c>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="G55" s="17">
+        <v>5944</v>
+      </c>
+      <c r="H55" s="17">
+        <v>24</v>
+      </c>
+      <c r="I55" s="17">
+        <v>46</v>
+      </c>
+      <c r="J55" s="17">
+        <v>74.84</v>
+      </c>
+      <c r="K55" s="17">
+        <v>56.84</v>
+      </c>
+      <c r="L55" s="23"/>
+      <c r="M55" s="23"/>
+      <c r="N55" s="23"/>
+      <c r="O55" s="23"/>
+      <c r="P55" s="23"/>
+      <c r="Q55" s="23"/>
+      <c r="R55" s="23"/>
+      <c r="S55" s="23"/>
+      <c r="T55" s="23"/>
+      <c r="U55" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
